--- a/output/alboan.xlsx
+++ b/output/alboan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="191">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -918,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ152"/>
+  <dimension ref="A1:AM152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -927,7 +936,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,10 +1045,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1138,15 +1156,24 @@
         <v>0.4161389134982235</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1245,15 +1272,24 @@
         <v>0.4161389134982235</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>329215</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1352,15 +1388,24 @@
         <v>0.4161389134982235</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>343907</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1459,15 +1504,24 @@
         <v>0.4161389134982235</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>128702</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1566,15 +1620,24 @@
         <v>0.4161389134982235</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>329592</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1673,15 +1736,24 @@
         <v>0.4161389134982235</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>213981</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1780,15 +1852,24 @@
         <v>0.4161389134982235</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>1210846</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1887,15 +1968,24 @@
         <v>0.4161389134982235</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>303295</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1994,15 +2084,24 @@
         <v>0.4161389134982235</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>1331219</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2101,15 +2200,24 @@
         <v>0.4161389134982235</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>62842</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2208,15 +2316,24 @@
         <v>0.4591696818454515</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>30500</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2315,15 +2432,24 @@
         <v>0.4591696818454515</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>729544</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2422,15 +2548,24 @@
         <v>0.4591696818454515</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>584742</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2529,15 +2664,24 @@
         <v>0.4591696818454515</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2636,15 +2780,24 @@
         <v>0.4591696818454515</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>38368</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2743,15 +2896,24 @@
         <v>0.4591696818454515</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>378290</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2850,15 +3012,24 @@
         <v>0.4591696818454515</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>166199</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2957,15 +3128,24 @@
         <v>0.4591696818454515</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>998020</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3064,15 +3244,24 @@
         <v>0.4591696818454515</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>198841</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3171,15 +3360,24 @@
         <v>0.4591696818454515</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>617397</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3278,15 +3476,24 @@
         <v>0.4591696818454515</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>242990</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3385,15 +3592,24 @@
         <v>0.4591696818454515</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>527329</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3492,15 +3708,24 @@
         <v>0.4591696818454515</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>1238809</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3599,15 +3824,24 @@
         <v>0.4591696818454515</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>185697</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3706,15 +3940,24 @@
         <v>0.4591696818454515</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>1852192</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3813,15 +4056,24 @@
         <v>0.4591696818454515</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>30000</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3920,15 +4172,24 @@
         <v>0.35807801101951</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>721727</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4027,15 +4288,24 @@
         <v>0.35807801101951</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>354793</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4134,15 +4404,24 @@
         <v>0.35807801101951</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>72837</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4241,15 +4520,24 @@
         <v>0.35807801101951</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>538414</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4348,15 +4636,24 @@
         <v>0.35807801101951</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>20000</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4455,15 +4752,24 @@
         <v>0.35807801101951</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>123072</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4562,15 +4868,24 @@
         <v>0.35807801101951</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>600239</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4669,15 +4984,24 @@
         <v>0.35807801101951</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>7044</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4776,15 +5100,24 @@
         <v>0.35807801101951</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>433476</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4883,15 +5216,24 @@
         <v>0.35807801101951</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>428489</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4990,15 +5332,24 @@
         <v>0.35807801101951</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>36900</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5097,15 +5448,24 @@
         <v>0.35807801101951</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>517710</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5204,15 +5564,24 @@
         <v>0.35807801101951</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>1212222</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5311,15 +5680,24 @@
         <v>0.35807801101951</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>193934</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5418,15 +5796,24 @@
         <v>0.35807801101951</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>181853123</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5525,15 +5912,24 @@
         <v>0.35807801101951</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>20750</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5632,15 +6028,24 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>116500</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5739,15 +6144,24 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>77467.5</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -5846,15 +6260,24 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>5000</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5953,15 +6376,24 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>1</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>69316</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6060,15 +6492,24 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>1</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>155208.5</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6167,15 +6608,24 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>1</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>272551.5</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6274,15 +6724,24 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>1</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>450000</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6381,15 +6840,24 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>1</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>84711</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -6488,15 +6956,24 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>87534</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6595,15 +7072,24 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>279072.5</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -6702,15 +7188,24 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>144271</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6809,15 +7304,24 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>726445</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6916,15 +7420,24 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>1</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>102960</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -7023,15 +7536,24 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>37790</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -7130,15 +7652,24 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>9555</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7237,15 +7768,24 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>1</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>116500</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7344,15 +7884,24 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>1</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>77467.5</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -7451,15 +8000,24 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>5000</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7558,15 +8116,24 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>1</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>69316</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7665,15 +8232,24 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>1</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>155208.5</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7772,15 +8348,24 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>1</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>272551.5</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7879,15 +8464,24 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>1</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>450000</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -7986,15 +8580,24 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>1</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>84711</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -8093,15 +8696,24 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>87534</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8200,15 +8812,24 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>279072.5</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -8307,15 +8928,24 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>144271</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8414,15 +9044,24 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>726445</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8521,15 +9160,24 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>1</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
         <v>102960</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -8628,15 +9276,24 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>37790</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -8735,15 +9392,24 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI73">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>9555</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8842,15 +9508,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>1</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>13603</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -8949,15 +9624,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>1</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
         <v>17293</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9056,15 +9740,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI76">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
         <v>13603</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -9163,15 +9856,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI77">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
         <v>33297.5</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -9270,15 +9972,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
+      <c r="AM78">
         <v>3186</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -9377,15 +10088,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
         <v>92928.735</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -9484,15 +10204,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>1</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>13603</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -9591,15 +10320,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>1</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
         <v>477310.835</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -9698,15 +10436,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI82">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>1</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
         <v>71228</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -9805,15 +10552,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI83">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>1</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
         <v>8749.495000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -9912,15 +10668,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI84">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>1</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
         <v>277871.37</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -10019,15 +10784,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI85">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>1</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
         <v>45603</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -10126,15 +10900,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI86">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
+      <c r="AM86">
         <v>971572.3100000001</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10233,15 +11016,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI87">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
         <v>27000</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -10340,15 +11132,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI88">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
         <v>31882.5</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:39">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -10447,15 +11248,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI89">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>1</v>
+      </c>
+      <c r="AM89">
         <v>116170.86</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:39">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -10554,15 +11364,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI90">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>1</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
         <v>43978</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:39">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -10661,15 +11480,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI91">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>1</v>
+      </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
+      <c r="AM91">
         <v>13603</v>
       </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:39">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -10768,15 +11596,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI92">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>1</v>
+      </c>
+      <c r="AL92">
+        <v>1</v>
+      </c>
+      <c r="AM92">
         <v>19566.11</v>
       </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:39">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -10875,15 +11712,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI93">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>1</v>
+      </c>
+      <c r="AL93">
+        <v>1</v>
+      </c>
+      <c r="AM93">
         <v>347188.74</v>
       </c>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:39">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -10982,15 +11828,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI94">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+      <c r="AL94">
+        <v>1</v>
+      </c>
+      <c r="AM94">
         <v>419822.345</v>
       </c>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:39">
       <c r="A95" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -11089,15 +11944,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI95">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>0</v>
+      </c>
+      <c r="AL95">
+        <v>1</v>
+      </c>
+      <c r="AM95">
         <v>15000</v>
       </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:39">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -11196,15 +12060,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI96">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
+      <c r="AL96">
+        <v>1</v>
+      </c>
+      <c r="AM96">
         <v>181849</v>
       </c>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:39">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -11303,15 +12176,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI97">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ97">
+        <v>0</v>
+      </c>
+      <c r="AK97">
+        <v>1</v>
+      </c>
+      <c r="AL97">
+        <v>1</v>
+      </c>
+      <c r="AM97">
         <v>17293</v>
       </c>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:39">
       <c r="A98" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -11410,15 +12292,24 @@
         <v>0.5733373351314441</v>
       </c>
       <c r="AI98">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ98">
+        <v>0</v>
+      </c>
+      <c r="AK98">
+        <v>1</v>
+      </c>
+      <c r="AL98">
+        <v>1</v>
+      </c>
+      <c r="AM98">
         <v>17887</v>
       </c>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:39">
       <c r="A99" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -11517,15 +12408,24 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI99">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ99">
+        <v>0</v>
+      </c>
+      <c r="AK99">
+        <v>1</v>
+      </c>
+      <c r="AL99">
+        <v>1</v>
+      </c>
+      <c r="AM99">
         <v>13603</v>
       </c>
     </row>
-    <row r="100" spans="1:36">
+    <row r="100" spans="1:39">
       <c r="A100" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -11624,15 +12524,24 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI100">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ100">
+        <v>0</v>
+      </c>
+      <c r="AK100">
+        <v>1</v>
+      </c>
+      <c r="AL100">
+        <v>1</v>
+      </c>
+      <c r="AM100">
         <v>17293</v>
       </c>
     </row>
-    <row r="101" spans="1:36">
+    <row r="101" spans="1:39">
       <c r="A101" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -11731,15 +12640,24 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI101">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ101">
+        <v>0</v>
+      </c>
+      <c r="AK101">
+        <v>0</v>
+      </c>
+      <c r="AL101">
+        <v>1</v>
+      </c>
+      <c r="AM101">
         <v>13603</v>
       </c>
     </row>
-    <row r="102" spans="1:36">
+    <row r="102" spans="1:39">
       <c r="A102" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -11838,15 +12756,24 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI102">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ102">
+        <v>0</v>
+      </c>
+      <c r="AK102">
+        <v>0</v>
+      </c>
+      <c r="AL102">
+        <v>1</v>
+      </c>
+      <c r="AM102">
         <v>33297.5</v>
       </c>
     </row>
-    <row r="103" spans="1:36">
+    <row r="103" spans="1:39">
       <c r="A103" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -11945,15 +12872,24 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI103">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>0</v>
+      </c>
+      <c r="AL103">
+        <v>1</v>
+      </c>
+      <c r="AM103">
         <v>3186</v>
       </c>
     </row>
-    <row r="104" spans="1:36">
+    <row r="104" spans="1:39">
       <c r="A104" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -12052,15 +12988,24 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI104">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ104">
+        <v>0</v>
+      </c>
+      <c r="AK104">
+        <v>0</v>
+      </c>
+      <c r="AL104">
+        <v>1</v>
+      </c>
+      <c r="AM104">
         <v>92928.735</v>
       </c>
     </row>
-    <row r="105" spans="1:36">
+    <row r="105" spans="1:39">
       <c r="A105" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -12159,15 +13104,24 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI105">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ105">
+        <v>0</v>
+      </c>
+      <c r="AK105">
+        <v>1</v>
+      </c>
+      <c r="AL105">
+        <v>1</v>
+      </c>
+      <c r="AM105">
         <v>13603</v>
       </c>
     </row>
-    <row r="106" spans="1:36">
+    <row r="106" spans="1:39">
       <c r="A106" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -12266,15 +13220,24 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI106">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ106">
+        <v>0</v>
+      </c>
+      <c r="AK106">
+        <v>1</v>
+      </c>
+      <c r="AL106">
+        <v>1</v>
+      </c>
+      <c r="AM106">
         <v>477310.835</v>
       </c>
     </row>
-    <row r="107" spans="1:36">
+    <row r="107" spans="1:39">
       <c r="A107" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -12373,15 +13336,24 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI107">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ107">
+        <v>0</v>
+      </c>
+      <c r="AK107">
+        <v>1</v>
+      </c>
+      <c r="AL107">
+        <v>1</v>
+      </c>
+      <c r="AM107">
         <v>71228</v>
       </c>
     </row>
-    <row r="108" spans="1:36">
+    <row r="108" spans="1:39">
       <c r="A108" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -12480,15 +13452,24 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI108">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ108">
+        <v>0</v>
+      </c>
+      <c r="AK108">
+        <v>1</v>
+      </c>
+      <c r="AL108">
+        <v>1</v>
+      </c>
+      <c r="AM108">
         <v>8749.495000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:36">
+    <row r="109" spans="1:39">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -12587,15 +13568,24 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI109">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ109">
+        <v>0</v>
+      </c>
+      <c r="AK109">
+        <v>1</v>
+      </c>
+      <c r="AL109">
+        <v>1</v>
+      </c>
+      <c r="AM109">
         <v>277871.37</v>
       </c>
     </row>
-    <row r="110" spans="1:36">
+    <row r="110" spans="1:39">
       <c r="A110" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -12694,15 +13684,24 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI110">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ110">
+        <v>0</v>
+      </c>
+      <c r="AK110">
+        <v>1</v>
+      </c>
+      <c r="AL110">
+        <v>1</v>
+      </c>
+      <c r="AM110">
         <v>45603</v>
       </c>
     </row>
-    <row r="111" spans="1:36">
+    <row r="111" spans="1:39">
       <c r="A111" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -12801,15 +13800,24 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI111">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ111">
+        <v>0</v>
+      </c>
+      <c r="AK111">
+        <v>0</v>
+      </c>
+      <c r="AL111">
+        <v>1</v>
+      </c>
+      <c r="AM111">
         <v>971572.3100000001</v>
       </c>
     </row>
-    <row r="112" spans="1:36">
+    <row r="112" spans="1:39">
       <c r="A112" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -12908,15 +13916,24 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI112">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ112">
+        <v>0</v>
+      </c>
+      <c r="AK112">
+        <v>0</v>
+      </c>
+      <c r="AL112">
+        <v>1</v>
+      </c>
+      <c r="AM112">
         <v>27000</v>
       </c>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:39">
       <c r="A113" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -13015,15 +14032,24 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI113">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ113">
+        <v>0</v>
+      </c>
+      <c r="AK113">
+        <v>0</v>
+      </c>
+      <c r="AL113">
+        <v>1</v>
+      </c>
+      <c r="AM113">
         <v>31882.5</v>
       </c>
     </row>
-    <row r="114" spans="1:36">
+    <row r="114" spans="1:39">
       <c r="A114" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -13122,15 +14148,24 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI114">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ114">
+        <v>0</v>
+      </c>
+      <c r="AK114">
+        <v>0</v>
+      </c>
+      <c r="AL114">
+        <v>1</v>
+      </c>
+      <c r="AM114">
         <v>116170.86</v>
       </c>
     </row>
-    <row r="115" spans="1:36">
+    <row r="115" spans="1:39">
       <c r="A115" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -13229,15 +14264,24 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI115">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ115">
+        <v>0</v>
+      </c>
+      <c r="AK115">
+        <v>1</v>
+      </c>
+      <c r="AL115">
+        <v>1</v>
+      </c>
+      <c r="AM115">
         <v>43978</v>
       </c>
     </row>
-    <row r="116" spans="1:36">
+    <row r="116" spans="1:39">
       <c r="A116" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -13336,15 +14380,24 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI116">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ116">
+        <v>0</v>
+      </c>
+      <c r="AK116">
+        <v>1</v>
+      </c>
+      <c r="AL116">
+        <v>1</v>
+      </c>
+      <c r="AM116">
         <v>13603</v>
       </c>
     </row>
-    <row r="117" spans="1:36">
+    <row r="117" spans="1:39">
       <c r="A117" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -13443,15 +14496,24 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI117">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ117">
+        <v>0</v>
+      </c>
+      <c r="AK117">
+        <v>1</v>
+      </c>
+      <c r="AL117">
+        <v>1</v>
+      </c>
+      <c r="AM117">
         <v>19566.11</v>
       </c>
     </row>
-    <row r="118" spans="1:36">
+    <row r="118" spans="1:39">
       <c r="A118" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -13550,15 +14612,24 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI118">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ118">
+        <v>0</v>
+      </c>
+      <c r="AK118">
+        <v>1</v>
+      </c>
+      <c r="AL118">
+        <v>1</v>
+      </c>
+      <c r="AM118">
         <v>347188.74</v>
       </c>
     </row>
-    <row r="119" spans="1:36">
+    <row r="119" spans="1:39">
       <c r="A119" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -13657,15 +14728,24 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI119">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ119">
+        <v>0</v>
+      </c>
+      <c r="AK119">
+        <v>0</v>
+      </c>
+      <c r="AL119">
+        <v>1</v>
+      </c>
+      <c r="AM119">
         <v>419822.345</v>
       </c>
     </row>
-    <row r="120" spans="1:36">
+    <row r="120" spans="1:39">
       <c r="A120" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -13764,15 +14844,24 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI120">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ120">
+        <v>0</v>
+      </c>
+      <c r="AK120">
+        <v>0</v>
+      </c>
+      <c r="AL120">
+        <v>1</v>
+      </c>
+      <c r="AM120">
         <v>15000</v>
       </c>
     </row>
-    <row r="121" spans="1:36">
+    <row r="121" spans="1:39">
       <c r="A121" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -13871,15 +14960,24 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI121">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ121">
+        <v>0</v>
+      </c>
+      <c r="AK121">
+        <v>0</v>
+      </c>
+      <c r="AL121">
+        <v>1</v>
+      </c>
+      <c r="AM121">
         <v>181849</v>
       </c>
     </row>
-    <row r="122" spans="1:36">
+    <row r="122" spans="1:39">
       <c r="A122" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -13978,21 +15076,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI122">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ122">
+        <v>0</v>
+      </c>
+      <c r="AK122">
+        <v>1</v>
+      </c>
+      <c r="AL122">
+        <v>1</v>
+      </c>
+      <c r="AM122">
         <v>17293</v>
       </c>
     </row>
-    <row r="123" spans="1:36">
+    <row r="123" spans="1:39">
       <c r="A123" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -14085,15 +15192,24 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI123">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ123">
+        <v>0</v>
+      </c>
+      <c r="AK123">
+        <v>1</v>
+      </c>
+      <c r="AL123">
+        <v>1</v>
+      </c>
+      <c r="AM123">
         <v>17887</v>
       </c>
     </row>
-    <row r="124" spans="1:36">
+    <row r="124" spans="1:39">
       <c r="A124" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -14192,15 +15308,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI124">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ124">
+        <v>0</v>
+      </c>
+      <c r="AK124">
+        <v>1</v>
+      </c>
+      <c r="AL124">
+        <v>1</v>
+      </c>
+      <c r="AM124">
         <v>30000</v>
       </c>
     </row>
-    <row r="125" spans="1:36">
+    <row r="125" spans="1:39">
       <c r="A125" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -14299,15 +15424,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI125">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ125">
+        <v>0</v>
+      </c>
+      <c r="AK125">
+        <v>1</v>
+      </c>
+      <c r="AL125">
+        <v>1</v>
+      </c>
+      <c r="AM125">
         <v>46974</v>
       </c>
     </row>
-    <row r="126" spans="1:36">
+    <row r="126" spans="1:39">
       <c r="A126" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -14406,15 +15540,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI126">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ126">
+        <v>0</v>
+      </c>
+      <c r="AK126">
+        <v>0</v>
+      </c>
+      <c r="AL126">
+        <v>1</v>
+      </c>
+      <c r="AM126">
         <v>30000</v>
       </c>
     </row>
-    <row r="127" spans="1:36">
+    <row r="127" spans="1:39">
       <c r="A127" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -14513,15 +15656,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI127">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ127">
+        <v>0</v>
+      </c>
+      <c r="AK127">
+        <v>0</v>
+      </c>
+      <c r="AL127">
+        <v>1</v>
+      </c>
+      <c r="AM127">
         <v>59254</v>
       </c>
     </row>
-    <row r="128" spans="1:36">
+    <row r="128" spans="1:39">
       <c r="A128" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -14620,15 +15772,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI128">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ128">
+        <v>0</v>
+      </c>
+      <c r="AK128">
+        <v>0</v>
+      </c>
+      <c r="AL128">
+        <v>1</v>
+      </c>
+      <c r="AM128">
         <v>6365</v>
       </c>
     </row>
-    <row r="129" spans="1:36">
+    <row r="129" spans="1:39">
       <c r="A129" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -14727,15 +15888,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI129">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ129">
+        <v>0</v>
+      </c>
+      <c r="AK129">
+        <v>0</v>
+      </c>
+      <c r="AL129">
+        <v>1</v>
+      </c>
+      <c r="AM129">
         <v>22200</v>
       </c>
     </row>
-    <row r="130" spans="1:36">
+    <row r="130" spans="1:39">
       <c r="A130" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -14834,15 +16004,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI130">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ130">
+        <v>0</v>
+      </c>
+      <c r="AK130">
+        <v>0</v>
+      </c>
+      <c r="AL130">
+        <v>1</v>
+      </c>
+      <c r="AM130">
         <v>375851</v>
       </c>
     </row>
-    <row r="131" spans="1:36">
+    <row r="131" spans="1:39">
       <c r="A131" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -14941,15 +16120,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI131">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ131">
+        <v>0</v>
+      </c>
+      <c r="AK131">
+        <v>1</v>
+      </c>
+      <c r="AL131">
+        <v>1</v>
+      </c>
+      <c r="AM131">
         <v>1295139</v>
       </c>
     </row>
-    <row r="132" spans="1:36">
+    <row r="132" spans="1:39">
       <c r="A132" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -15048,15 +16236,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI132">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ132">
+        <v>0</v>
+      </c>
+      <c r="AK132">
+        <v>1</v>
+      </c>
+      <c r="AL132">
+        <v>1</v>
+      </c>
+      <c r="AM132">
         <v>89041</v>
       </c>
     </row>
-    <row r="133" spans="1:36">
+    <row r="133" spans="1:39">
       <c r="A133" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -15155,15 +16352,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI133">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ133">
+        <v>0</v>
+      </c>
+      <c r="AK133">
+        <v>1</v>
+      </c>
+      <c r="AL133">
+        <v>1</v>
+      </c>
+      <c r="AM133">
         <v>179184</v>
       </c>
     </row>
-    <row r="134" spans="1:36">
+    <row r="134" spans="1:39">
       <c r="A134" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -15262,15 +16468,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI134">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ134">
+        <v>0</v>
+      </c>
+      <c r="AK134">
+        <v>1</v>
+      </c>
+      <c r="AL134">
+        <v>1</v>
+      </c>
+      <c r="AM134">
         <v>305007</v>
       </c>
     </row>
-    <row r="135" spans="1:36">
+    <row r="135" spans="1:39">
       <c r="A135" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -15369,15 +16584,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI135">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ135">
+        <v>0</v>
+      </c>
+      <c r="AK135">
+        <v>0</v>
+      </c>
+      <c r="AL135">
+        <v>1</v>
+      </c>
+      <c r="AM135">
         <v>70645</v>
       </c>
     </row>
-    <row r="136" spans="1:36">
+    <row r="136" spans="1:39">
       <c r="A136" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -15476,15 +16700,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI136">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ136">
+        <v>0</v>
+      </c>
+      <c r="AK136">
+        <v>1</v>
+      </c>
+      <c r="AL136">
+        <v>1</v>
+      </c>
+      <c r="AM136">
         <v>670475</v>
       </c>
     </row>
-    <row r="137" spans="1:36">
+    <row r="137" spans="1:39">
       <c r="A137" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -15583,15 +16816,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI137">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ137">
+        <v>0</v>
+      </c>
+      <c r="AK137">
+        <v>0</v>
+      </c>
+      <c r="AL137">
+        <v>1</v>
+      </c>
+      <c r="AM137">
         <v>1868955</v>
       </c>
     </row>
-    <row r="138" spans="1:36">
+    <row r="138" spans="1:39">
       <c r="A138" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -15690,15 +16932,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI138">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ138">
+        <v>0</v>
+      </c>
+      <c r="AK138">
+        <v>0</v>
+      </c>
+      <c r="AL138">
+        <v>1</v>
+      </c>
+      <c r="AM138">
         <v>44900</v>
       </c>
     </row>
-    <row r="139" spans="1:36">
+    <row r="139" spans="1:39">
       <c r="A139" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -15797,15 +17048,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI139">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ139">
+        <v>0</v>
+      </c>
+      <c r="AK139">
+        <v>0</v>
+      </c>
+      <c r="AL139">
+        <v>1</v>
+      </c>
+      <c r="AM139">
         <v>1983</v>
       </c>
     </row>
-    <row r="140" spans="1:36">
+    <row r="140" spans="1:39">
       <c r="A140" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -15904,15 +17164,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI140">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ140">
+        <v>0</v>
+      </c>
+      <c r="AK140">
+        <v>1</v>
+      </c>
+      <c r="AL140">
+        <v>1</v>
+      </c>
+      <c r="AM140">
         <v>10000</v>
       </c>
     </row>
-    <row r="141" spans="1:36">
+    <row r="141" spans="1:39">
       <c r="A141" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -16011,15 +17280,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI141">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ141">
+        <v>0</v>
+      </c>
+      <c r="AK141">
+        <v>0</v>
+      </c>
+      <c r="AL141">
+        <v>1</v>
+      </c>
+      <c r="AM141">
         <v>3273</v>
       </c>
     </row>
-    <row r="142" spans="1:36">
+    <row r="142" spans="1:39">
       <c r="A142" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -16118,15 +17396,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI142">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ142">
+        <v>0</v>
+      </c>
+      <c r="AK142">
+        <v>1</v>
+      </c>
+      <c r="AL142">
+        <v>1</v>
+      </c>
+      <c r="AM142">
         <v>177293</v>
       </c>
     </row>
-    <row r="143" spans="1:36">
+    <row r="143" spans="1:39">
       <c r="A143" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -16225,15 +17512,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI143">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ143">
+        <v>0</v>
+      </c>
+      <c r="AK143">
+        <v>1</v>
+      </c>
+      <c r="AL143">
+        <v>1</v>
+      </c>
+      <c r="AM143">
         <v>25000</v>
       </c>
     </row>
-    <row r="144" spans="1:36">
+    <row r="144" spans="1:39">
       <c r="A144" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -16332,15 +17628,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI144">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ144">
+        <v>0</v>
+      </c>
+      <c r="AK144">
+        <v>1</v>
+      </c>
+      <c r="AL144">
+        <v>1</v>
+      </c>
+      <c r="AM144">
         <v>52291</v>
       </c>
     </row>
-    <row r="145" spans="1:36">
+    <row r="145" spans="1:39">
       <c r="A145" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -16439,15 +17744,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI145">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ145">
+        <v>0</v>
+      </c>
+      <c r="AK145">
+        <v>1</v>
+      </c>
+      <c r="AL145">
+        <v>1</v>
+      </c>
+      <c r="AM145">
         <v>420888</v>
       </c>
     </row>
-    <row r="146" spans="1:36">
+    <row r="146" spans="1:39">
       <c r="A146" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -16546,15 +17860,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI146">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ146">
+        <v>0</v>
+      </c>
+      <c r="AK146">
+        <v>0</v>
+      </c>
+      <c r="AL146">
+        <v>1</v>
+      </c>
+      <c r="AM146">
         <v>680245</v>
       </c>
     </row>
-    <row r="147" spans="1:36">
+    <row r="147" spans="1:39">
       <c r="A147" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -16653,15 +17976,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI147">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ147">
+        <v>0</v>
+      </c>
+      <c r="AK147">
+        <v>0</v>
+      </c>
+      <c r="AL147">
+        <v>1</v>
+      </c>
+      <c r="AM147">
         <v>32000</v>
       </c>
     </row>
-    <row r="148" spans="1:36">
+    <row r="148" spans="1:39">
       <c r="A148" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -16760,15 +18092,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI148">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ148">
+        <v>0</v>
+      </c>
+      <c r="AK148">
+        <v>0</v>
+      </c>
+      <c r="AL148">
+        <v>1</v>
+      </c>
+      <c r="AM148">
         <v>47293</v>
       </c>
     </row>
-    <row r="149" spans="1:36">
+    <row r="149" spans="1:39">
       <c r="A149" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -16867,15 +18208,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI149">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ149">
+        <v>0</v>
+      </c>
+      <c r="AK149">
+        <v>0</v>
+      </c>
+      <c r="AL149">
+        <v>1</v>
+      </c>
+      <c r="AM149">
         <v>344748</v>
       </c>
     </row>
-    <row r="150" spans="1:36">
+    <row r="150" spans="1:39">
       <c r="A150" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -16974,21 +18324,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI150">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ150">
+        <v>0</v>
+      </c>
+      <c r="AK150">
+        <v>1</v>
+      </c>
+      <c r="AL150">
+        <v>1</v>
+      </c>
+      <c r="AM150">
         <v>40000</v>
       </c>
     </row>
-    <row r="151" spans="1:36">
+    <row r="151" spans="1:39">
       <c r="A151" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -17081,15 +18440,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI151">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ151">
+        <v>0</v>
+      </c>
+      <c r="AK151">
+        <v>1</v>
+      </c>
+      <c r="AL151">
+        <v>1</v>
+      </c>
+      <c r="AM151">
         <v>57892</v>
       </c>
     </row>
-    <row r="152" spans="1:36">
+    <row r="152" spans="1:39">
       <c r="A152" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -17188,9 +18556,18 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI152">
-        <v>1</v>
+        <v>1996</v>
       </c>
       <c r="AJ152">
+        <v>0</v>
+      </c>
+      <c r="AK152">
+        <v>0</v>
+      </c>
+      <c r="AL152">
+        <v>1</v>
+      </c>
+      <c r="AM152">
         <v>13042</v>
       </c>
     </row>

--- a/output/alboan.xlsx
+++ b/output/alboan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="193">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
+    <t>Private_Funds_Donations</t>
   </si>
   <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -927,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM152"/>
+  <dimension ref="A1:AO152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -936,7 +942,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1054,10 +1060,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1114,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>3658623</v>
+        <v>5238779</v>
       </c>
       <c r="U2">
         <v>36</v>
@@ -1150,30 +1162,36 @@
         <v>2611353</v>
       </c>
       <c r="AG2">
-        <v>8791831</v>
+        <v>10371987</v>
       </c>
       <c r="AH2">
-        <v>0.4161389134982235</v>
+        <v>0.5050892369996222</v>
       </c>
       <c r="AI2">
+        <v>0.02471214049921196</v>
+      </c>
+      <c r="AJ2">
         <v>1996</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1230,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>3658623</v>
+        <v>5238779</v>
       </c>
       <c r="U3">
         <v>36</v>
@@ -1266,30 +1284,36 @@
         <v>4093293</v>
       </c>
       <c r="AG3">
-        <v>8791831</v>
+        <v>10371987</v>
       </c>
       <c r="AH3">
-        <v>0.4161389134982235</v>
+        <v>0.5050892369996222</v>
       </c>
       <c r="AI3">
+        <v>0.02471214049921196</v>
+      </c>
+      <c r="AJ3">
         <v>1996</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>329215</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1346,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>3658623</v>
+        <v>5238779</v>
       </c>
       <c r="U4">
         <v>36</v>
@@ -1382,30 +1406,36 @@
         <v>2565774</v>
       </c>
       <c r="AG4">
-        <v>8791831</v>
+        <v>10371987</v>
       </c>
       <c r="AH4">
-        <v>0.4161389134982235</v>
+        <v>0.5050892369996222</v>
       </c>
       <c r="AI4">
+        <v>0.02471214049921196</v>
+      </c>
+      <c r="AJ4">
         <v>1996</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>343907</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1462,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>3658623</v>
+        <v>5238779</v>
       </c>
       <c r="U5">
         <v>36</v>
@@ -1498,30 +1528,36 @@
         <v>3881838</v>
       </c>
       <c r="AG5">
-        <v>8791831</v>
+        <v>10371987</v>
       </c>
       <c r="AH5">
-        <v>0.4161389134982235</v>
+        <v>0.5050892369996222</v>
       </c>
       <c r="AI5">
+        <v>0.02471214049921196</v>
+      </c>
+      <c r="AJ5">
         <v>1996</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>128702</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1578,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>3658623</v>
+        <v>5238779</v>
       </c>
       <c r="U6">
         <v>36</v>
@@ -1614,30 +1650,36 @@
         <v>4231773</v>
       </c>
       <c r="AG6">
-        <v>8791831</v>
+        <v>10371987</v>
       </c>
       <c r="AH6">
-        <v>0.4161389134982235</v>
+        <v>0.5050892369996222</v>
       </c>
       <c r="AI6">
+        <v>0.02471214049921196</v>
+      </c>
+      <c r="AJ6">
         <v>1996</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>329592</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1694,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>3658623</v>
+        <v>5238779</v>
       </c>
       <c r="U7">
         <v>36</v>
@@ -1730,30 +1772,36 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>8791831</v>
+        <v>10371987</v>
       </c>
       <c r="AH7">
-        <v>0.4161389134982235</v>
+        <v>0.5050892369996222</v>
       </c>
       <c r="AI7">
+        <v>0.02471214049921196</v>
+      </c>
+      <c r="AJ7">
         <v>1996</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>1</v>
       </c>
       <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>213981</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1810,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>3658623</v>
+        <v>5238779</v>
       </c>
       <c r="U8">
         <v>36</v>
@@ -1846,30 +1894,36 @@
         <v>5201043</v>
       </c>
       <c r="AG8">
-        <v>8791831</v>
+        <v>10371987</v>
       </c>
       <c r="AH8">
-        <v>0.4161389134982235</v>
+        <v>0.5050892369996222</v>
       </c>
       <c r="AI8">
+        <v>0.02471214049921196</v>
+      </c>
+      <c r="AJ8">
         <v>1996</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>1210846</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1926,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>3658623</v>
+        <v>5238779</v>
       </c>
       <c r="U9">
         <v>36</v>
@@ -1962,30 +2016,36 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>8791831</v>
+        <v>10371987</v>
       </c>
       <c r="AH9">
-        <v>0.4161389134982235</v>
+        <v>0.5050892369996222</v>
       </c>
       <c r="AI9">
+        <v>0.02471214049921196</v>
+      </c>
+      <c r="AJ9">
         <v>1996</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>303295</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2042,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>3658623</v>
+        <v>5238779</v>
       </c>
       <c r="U10">
         <v>36</v>
@@ -2078,30 +2138,36 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>8791831</v>
+        <v>10371987</v>
       </c>
       <c r="AH10">
-        <v>0.4161389134982235</v>
+        <v>0.5050892369996222</v>
       </c>
       <c r="AI10">
+        <v>0.02471214049921196</v>
+      </c>
+      <c r="AJ10">
         <v>1996</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>1331219</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2158,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>3658623</v>
+        <v>5238779</v>
       </c>
       <c r="U11">
         <v>36</v>
@@ -2194,30 +2260,36 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>8791831</v>
+        <v>10371987</v>
       </c>
       <c r="AH11">
-        <v>0.4161389134982235</v>
+        <v>0.5050892369996222</v>
       </c>
       <c r="AI11">
+        <v>0.02471214049921196</v>
+      </c>
+      <c r="AJ11">
         <v>1996</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>62842</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2274,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>3428086</v>
+        <v>5183568</v>
       </c>
       <c r="U12">
         <v>38</v>
@@ -2310,30 +2382,36 @@
         <v>17422722</v>
       </c>
       <c r="AG12">
-        <v>7465837</v>
+        <v>9221319</v>
       </c>
       <c r="AH12">
-        <v>0.4591696818454515</v>
+        <v>0.5621286933029863</v>
       </c>
       <c r="AI12">
+        <v>0.05422065975594164</v>
+      </c>
+      <c r="AJ12">
         <v>1996</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>30500</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2390,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>3428086</v>
+        <v>5183568</v>
       </c>
       <c r="U13">
         <v>38</v>
@@ -2426,30 +2504,36 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>7465837</v>
+        <v>9221319</v>
       </c>
       <c r="AH13">
-        <v>0.4591696818454515</v>
+        <v>0.5621286933029863</v>
       </c>
       <c r="AI13">
+        <v>0.05422065975594164</v>
+      </c>
+      <c r="AJ13">
         <v>1996</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>729544</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2506,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>3428086</v>
+        <v>5183568</v>
       </c>
       <c r="U14">
         <v>38</v>
@@ -2542,30 +2626,36 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>7465837</v>
+        <v>9221319</v>
       </c>
       <c r="AH14">
-        <v>0.4591696818454515</v>
+        <v>0.5621286933029863</v>
       </c>
       <c r="AI14">
+        <v>0.05422065975594164</v>
+      </c>
+      <c r="AJ14">
         <v>1996</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>584742</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2622,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>3428086</v>
+        <v>5183568</v>
       </c>
       <c r="U15">
         <v>38</v>
@@ -2658,30 +2748,36 @@
         <v>15684392</v>
       </c>
       <c r="AG15">
-        <v>7465837</v>
+        <v>9221319</v>
       </c>
       <c r="AH15">
-        <v>0.4591696818454515</v>
+        <v>0.5621286933029863</v>
       </c>
       <c r="AI15">
+        <v>0.05422065975594164</v>
+      </c>
+      <c r="AJ15">
         <v>1996</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15">
         <v>1</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2738,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>3428086</v>
+        <v>5183568</v>
       </c>
       <c r="U16">
         <v>38</v>
@@ -2774,30 +2870,36 @@
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>7465837</v>
+        <v>9221319</v>
       </c>
       <c r="AH16">
-        <v>0.4591696818454515</v>
+        <v>0.5621286933029863</v>
       </c>
       <c r="AI16">
+        <v>0.05422065975594164</v>
+      </c>
+      <c r="AJ16">
         <v>1996</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>38368</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2854,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>3428086</v>
+        <v>5183568</v>
       </c>
       <c r="U17">
         <v>38</v>
@@ -2890,30 +2992,36 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>7465837</v>
+        <v>9221319</v>
       </c>
       <c r="AH17">
-        <v>0.4591696818454515</v>
+        <v>0.5621286933029863</v>
       </c>
       <c r="AI17">
+        <v>0.05422065975594164</v>
+      </c>
+      <c r="AJ17">
         <v>1996</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>378290</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2970,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>3428086</v>
+        <v>5183568</v>
       </c>
       <c r="U18">
         <v>38</v>
@@ -3006,30 +3114,36 @@
         <v>22208778.83333333</v>
       </c>
       <c r="AG18">
-        <v>7465837</v>
+        <v>9221319</v>
       </c>
       <c r="AH18">
-        <v>0.4591696818454515</v>
+        <v>0.5621286933029863</v>
       </c>
       <c r="AI18">
+        <v>0.05422065975594164</v>
+      </c>
+      <c r="AJ18">
         <v>1996</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>166199</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3086,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>3428086</v>
+        <v>5183568</v>
       </c>
       <c r="U19">
         <v>38</v>
@@ -3122,30 +3236,36 @@
         <v>14532818.83333333</v>
       </c>
       <c r="AG19">
-        <v>7465837</v>
+        <v>9221319</v>
       </c>
       <c r="AH19">
-        <v>0.4591696818454515</v>
+        <v>0.5621286933029863</v>
       </c>
       <c r="AI19">
+        <v>0.05422065975594164</v>
+      </c>
+      <c r="AJ19">
         <v>1996</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>998020</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3202,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3428086</v>
+        <v>5183568</v>
       </c>
       <c r="U20">
         <v>38</v>
@@ -3238,30 +3358,36 @@
         <v>12175312</v>
       </c>
       <c r="AG20">
-        <v>7465837</v>
+        <v>9221319</v>
       </c>
       <c r="AH20">
-        <v>0.4591696818454515</v>
+        <v>0.5621286933029863</v>
       </c>
       <c r="AI20">
+        <v>0.05422065975594164</v>
+      </c>
+      <c r="AJ20">
         <v>1996</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>198841</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3318,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>3428086</v>
+        <v>5183568</v>
       </c>
       <c r="U21">
         <v>38</v>
@@ -3354,30 +3480,36 @@
         <v>10267085.83333333</v>
       </c>
       <c r="AG21">
-        <v>7465837</v>
+        <v>9221319</v>
       </c>
       <c r="AH21">
-        <v>0.4591696818454515</v>
+        <v>0.5621286933029863</v>
       </c>
       <c r="AI21">
+        <v>0.05422065975594164</v>
+      </c>
+      <c r="AJ21">
         <v>1996</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
         <v>1</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>617397</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3434,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>3428086</v>
+        <v>5183568</v>
       </c>
       <c r="U22">
         <v>38</v>
@@ -3470,30 +3602,36 @@
         <v>18320809.5</v>
       </c>
       <c r="AG22">
-        <v>7465837</v>
+        <v>9221319</v>
       </c>
       <c r="AH22">
-        <v>0.4591696818454515</v>
+        <v>0.5621286933029863</v>
       </c>
       <c r="AI22">
+        <v>0.05422065975594164</v>
+      </c>
+      <c r="AJ22">
         <v>1996</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22">
         <v>1</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>242990</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3550,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3428086</v>
+        <v>5183568</v>
       </c>
       <c r="U23">
         <v>38</v>
@@ -3586,30 +3724,36 @@
         <v>25548911</v>
       </c>
       <c r="AG23">
-        <v>7465837</v>
+        <v>9221319</v>
       </c>
       <c r="AH23">
-        <v>0.4591696818454515</v>
+        <v>0.5621286933029863</v>
       </c>
       <c r="AI23">
+        <v>0.05422065975594164</v>
+      </c>
+      <c r="AJ23">
         <v>1996</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>527329</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3666,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>3428086</v>
+        <v>5183568</v>
       </c>
       <c r="U24">
         <v>38</v>
@@ -3702,30 +3846,36 @@
         <v>27999397</v>
       </c>
       <c r="AG24">
-        <v>7465837</v>
+        <v>9221319</v>
       </c>
       <c r="AH24">
-        <v>0.4591696818454515</v>
+        <v>0.5621286933029863</v>
       </c>
       <c r="AI24">
+        <v>0.05422065975594164</v>
+      </c>
+      <c r="AJ24">
         <v>1996</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24">
         <v>1</v>
       </c>
       <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>1238809</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3782,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>3428086</v>
+        <v>5183568</v>
       </c>
       <c r="U25">
         <v>38</v>
@@ -3818,30 +3968,36 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>7465837</v>
+        <v>9221319</v>
       </c>
       <c r="AH25">
-        <v>0.4591696818454515</v>
+        <v>0.5621286933029863</v>
       </c>
       <c r="AI25">
+        <v>0.05422065975594164</v>
+      </c>
+      <c r="AJ25">
         <v>1996</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25">
         <v>1</v>
       </c>
       <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>185697</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3898,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>3428086</v>
+        <v>5183568</v>
       </c>
       <c r="U26">
         <v>38</v>
@@ -3934,30 +4090,36 @@
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>7465837</v>
+        <v>9221319</v>
       </c>
       <c r="AH26">
-        <v>0.4591696818454515</v>
+        <v>0.5621286933029863</v>
       </c>
       <c r="AI26">
+        <v>0.05422065975594164</v>
+      </c>
+      <c r="AJ26">
         <v>1996</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>1852192</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4014,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>3428086</v>
+        <v>5183568</v>
       </c>
       <c r="U27">
         <v>38</v>
@@ -4050,30 +4212,36 @@
         <v>0</v>
       </c>
       <c r="AG27">
-        <v>7465837</v>
+        <v>9221319</v>
       </c>
       <c r="AH27">
-        <v>0.4591696818454515</v>
+        <v>0.5621286933029863</v>
       </c>
       <c r="AI27">
+        <v>0.05422065975594164</v>
+      </c>
+      <c r="AJ27">
         <v>1996</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>30000</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4130,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>3174363</v>
+        <v>4703340</v>
       </c>
       <c r="U28">
         <v>38</v>
@@ -4166,30 +4334,36 @@
         <v>1605744</v>
       </c>
       <c r="AG28">
-        <v>8865004</v>
+        <v>10393981</v>
       </c>
       <c r="AH28">
-        <v>0.35807801101951</v>
+        <v>0.45250611868542</v>
       </c>
       <c r="AI28">
+        <v>0.07976231628670477</v>
+      </c>
+      <c r="AJ28">
         <v>1996</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>721727</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4246,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <v>3174363</v>
+        <v>4703340</v>
       </c>
       <c r="U29">
         <v>38</v>
@@ -4282,30 +4456,36 @@
         <v>0</v>
       </c>
       <c r="AG29">
-        <v>8865004</v>
+        <v>10393981</v>
       </c>
       <c r="AH29">
-        <v>0.35807801101951</v>
+        <v>0.45250611868542</v>
       </c>
       <c r="AI29">
+        <v>0.07976231628670477</v>
+      </c>
+      <c r="AJ29">
         <v>1996</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>354793</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4362,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>3174363</v>
+        <v>4703340</v>
       </c>
       <c r="U30">
         <v>38</v>
@@ -4398,30 +4578,36 @@
         <v>1695725</v>
       </c>
       <c r="AG30">
-        <v>8865004</v>
+        <v>10393981</v>
       </c>
       <c r="AH30">
-        <v>0.35807801101951</v>
+        <v>0.45250611868542</v>
       </c>
       <c r="AI30">
+        <v>0.07976231628670477</v>
+      </c>
+      <c r="AJ30">
         <v>1996</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>1</v>
       </c>
       <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>72837</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4478,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>3174363</v>
+        <v>4703340</v>
       </c>
       <c r="U31">
         <v>38</v>
@@ -4514,30 +4700,36 @@
         <v>0</v>
       </c>
       <c r="AG31">
-        <v>8865004</v>
+        <v>10393981</v>
       </c>
       <c r="AH31">
-        <v>0.35807801101951</v>
+        <v>0.45250611868542</v>
       </c>
       <c r="AI31">
+        <v>0.07976231628670477</v>
+      </c>
+      <c r="AJ31">
         <v>1996</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>538414</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4594,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>3174363</v>
+        <v>4703340</v>
       </c>
       <c r="U32">
         <v>38</v>
@@ -4630,30 +4822,36 @@
         <v>0</v>
       </c>
       <c r="AG32">
-        <v>8865004</v>
+        <v>10393981</v>
       </c>
       <c r="AH32">
-        <v>0.35807801101951</v>
+        <v>0.45250611868542</v>
       </c>
       <c r="AI32">
+        <v>0.07976231628670477</v>
+      </c>
+      <c r="AJ32">
         <v>1996</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
         <v>0</v>
       </c>
       <c r="AL32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>20000</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4710,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>3174363</v>
+        <v>4703340</v>
       </c>
       <c r="U33">
         <v>38</v>
@@ -4746,30 +4944,36 @@
         <v>2407765</v>
       </c>
       <c r="AG33">
-        <v>8865004</v>
+        <v>10393981</v>
       </c>
       <c r="AH33">
-        <v>0.35807801101951</v>
+        <v>0.45250611868542</v>
       </c>
       <c r="AI33">
+        <v>0.07976231628670477</v>
+      </c>
+      <c r="AJ33">
         <v>1996</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33">
         <v>1</v>
       </c>
       <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>123072</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4826,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>3174363</v>
+        <v>4703340</v>
       </c>
       <c r="U34">
         <v>38</v>
@@ -4862,30 +5066,36 @@
         <v>2140362</v>
       </c>
       <c r="AG34">
-        <v>8865004</v>
+        <v>10393981</v>
       </c>
       <c r="AH34">
-        <v>0.35807801101951</v>
+        <v>0.45250611868542</v>
       </c>
       <c r="AI34">
+        <v>0.07976231628670477</v>
+      </c>
+      <c r="AJ34">
         <v>1996</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34">
         <v>1</v>
       </c>
       <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>600239</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4942,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>3174363</v>
+        <v>4703340</v>
       </c>
       <c r="U35">
         <v>38</v>
@@ -4978,30 +5188,36 @@
         <v>3746015</v>
       </c>
       <c r="AG35">
-        <v>8865004</v>
+        <v>10393981</v>
       </c>
       <c r="AH35">
-        <v>0.35807801101951</v>
+        <v>0.45250611868542</v>
       </c>
       <c r="AI35">
+        <v>0.07976231628670477</v>
+      </c>
+      <c r="AJ35">
         <v>1996</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>7044</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5058,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>3174363</v>
+        <v>4703340</v>
       </c>
       <c r="U36">
         <v>38</v>
@@ -5094,30 +5310,36 @@
         <v>2070562</v>
       </c>
       <c r="AG36">
-        <v>8865004</v>
+        <v>10393981</v>
       </c>
       <c r="AH36">
-        <v>0.35807801101951</v>
+        <v>0.45250611868542</v>
       </c>
       <c r="AI36">
+        <v>0.07976231628670477</v>
+      </c>
+      <c r="AJ36">
         <v>1996</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36">
         <v>1</v>
       </c>
       <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>433476</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5174,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="T37">
-        <v>3174363</v>
+        <v>4703340</v>
       </c>
       <c r="U37">
         <v>38</v>
@@ -5210,30 +5432,36 @@
         <v>2121035</v>
       </c>
       <c r="AG37">
-        <v>8865004</v>
+        <v>10393981</v>
       </c>
       <c r="AH37">
-        <v>0.35807801101951</v>
+        <v>0.45250611868542</v>
       </c>
       <c r="AI37">
+        <v>0.07976231628670477</v>
+      </c>
+      <c r="AJ37">
         <v>1996</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37">
         <v>1</v>
       </c>
       <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>428489</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5290,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>3174363</v>
+        <v>4703340</v>
       </c>
       <c r="U38">
         <v>38</v>
@@ -5326,30 +5554,36 @@
         <v>0</v>
       </c>
       <c r="AG38">
-        <v>8865004</v>
+        <v>10393981</v>
       </c>
       <c r="AH38">
-        <v>0.35807801101951</v>
+        <v>0.45250611868542</v>
       </c>
       <c r="AI38">
+        <v>0.07976231628670477</v>
+      </c>
+      <c r="AJ38">
         <v>1996</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>1</v>
       </c>
       <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>36900</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5406,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <v>3174363</v>
+        <v>4703340</v>
       </c>
       <c r="U39">
         <v>38</v>
@@ -5442,30 +5676,36 @@
         <v>1772730</v>
       </c>
       <c r="AG39">
-        <v>8865004</v>
+        <v>10393981</v>
       </c>
       <c r="AH39">
-        <v>0.35807801101951</v>
+        <v>0.45250611868542</v>
       </c>
       <c r="AI39">
+        <v>0.07976231628670477</v>
+      </c>
+      <c r="AJ39">
         <v>1996</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39">
         <v>1</v>
       </c>
       <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>517710</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5522,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="T40">
-        <v>3174363</v>
+        <v>4703340</v>
       </c>
       <c r="U40">
         <v>38</v>
@@ -5558,30 +5798,36 @@
         <v>2304887</v>
       </c>
       <c r="AG40">
-        <v>8865004</v>
+        <v>10393981</v>
       </c>
       <c r="AH40">
-        <v>0.35807801101951</v>
+        <v>0.45250611868542</v>
       </c>
       <c r="AI40">
+        <v>0.07976231628670477</v>
+      </c>
+      <c r="AJ40">
         <v>1996</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40">
         <v>1</v>
       </c>
       <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>1212222</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5638,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="T41">
-        <v>3174363</v>
+        <v>4703340</v>
       </c>
       <c r="U41">
         <v>38</v>
@@ -5674,30 +5920,36 @@
         <v>0</v>
       </c>
       <c r="AG41">
-        <v>8865004</v>
+        <v>10393981</v>
       </c>
       <c r="AH41">
-        <v>0.35807801101951</v>
+        <v>0.45250611868542</v>
       </c>
       <c r="AI41">
+        <v>0.07976231628670477</v>
+      </c>
+      <c r="AJ41">
         <v>1996</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41">
         <v>1</v>
       </c>
       <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>193934</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5754,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <v>3174363</v>
+        <v>4703340</v>
       </c>
       <c r="U42">
         <v>38</v>
@@ -5790,30 +6042,36 @@
         <v>0</v>
       </c>
       <c r="AG42">
-        <v>8865004</v>
+        <v>10393981</v>
       </c>
       <c r="AH42">
-        <v>0.35807801101951</v>
+        <v>0.45250611868542</v>
       </c>
       <c r="AI42">
+        <v>0.07976231628670477</v>
+      </c>
+      <c r="AJ42">
         <v>1996</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>181853123</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5870,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>3174363</v>
+        <v>4703340</v>
       </c>
       <c r="U43">
         <v>38</v>
@@ -5906,30 +6164,36 @@
         <v>0</v>
       </c>
       <c r="AG43">
-        <v>8865004</v>
+        <v>10393981</v>
       </c>
       <c r="AH43">
-        <v>0.35807801101951</v>
+        <v>0.45250611868542</v>
       </c>
       <c r="AI43">
+        <v>0.07976231628670477</v>
+      </c>
+      <c r="AJ43">
         <v>1996</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>20750</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -6028,24 +6292,30 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI44">
+        <v>0.002020785522304617</v>
+      </c>
+      <c r="AJ44">
         <v>1996</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44">
         <v>1</v>
       </c>
       <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>116500</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -6144,24 +6414,30 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI45">
+        <v>0.002020785522304617</v>
+      </c>
+      <c r="AJ45">
         <v>1996</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45">
         <v>1</v>
       </c>
       <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>77467.5</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -6260,24 +6536,30 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI46">
+        <v>0.002020785522304617</v>
+      </c>
+      <c r="AJ46">
         <v>1996</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
         <v>0</v>
       </c>
       <c r="AL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>5000</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6376,24 +6658,30 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI47">
+        <v>0.002020785522304617</v>
+      </c>
+      <c r="AJ47">
         <v>1996</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47">
         <v>1</v>
       </c>
       <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>69316</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6492,24 +6780,30 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI48">
+        <v>0.002020785522304617</v>
+      </c>
+      <c r="AJ48">
         <v>1996</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48">
         <v>1</v>
       </c>
       <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>155208.5</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6608,24 +6902,30 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI49">
+        <v>0.002020785522304617</v>
+      </c>
+      <c r="AJ49">
         <v>1996</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49">
         <v>1</v>
       </c>
       <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>272551.5</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6724,24 +7024,30 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI50">
+        <v>0.002020785522304617</v>
+      </c>
+      <c r="AJ50">
         <v>1996</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50">
         <v>1</v>
       </c>
       <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>450000</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6840,24 +7146,30 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI51">
+        <v>0.002020785522304617</v>
+      </c>
+      <c r="AJ51">
         <v>1996</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
       <c r="AK51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51">
         <v>1</v>
       </c>
       <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>84711</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -6956,24 +7268,30 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI52">
+        <v>0.002020785522304617</v>
+      </c>
+      <c r="AJ52">
         <v>1996</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
         <v>0</v>
       </c>
       <c r="AL52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>87534</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -7072,24 +7390,30 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI53">
+        <v>0.002020785522304617</v>
+      </c>
+      <c r="AJ53">
         <v>1996</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
         <v>0</v>
       </c>
       <c r="AL53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>279072.5</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -7188,24 +7512,30 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI54">
+        <v>0.002020785522304617</v>
+      </c>
+      <c r="AJ54">
         <v>1996</v>
       </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
       <c r="AK54">
         <v>0</v>
       </c>
       <c r="AL54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>144271</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7304,24 +7634,30 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI55">
+        <v>0.002020785522304617</v>
+      </c>
+      <c r="AJ55">
         <v>1996</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
       <c r="AK55">
         <v>0</v>
       </c>
       <c r="AL55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>726445</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7420,24 +7756,30 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI56">
+        <v>0.002020785522304617</v>
+      </c>
+      <c r="AJ56">
         <v>1996</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
       <c r="AK56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56">
         <v>1</v>
       </c>
       <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>102960</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -7536,24 +7878,30 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI57">
+        <v>0.002020785522304617</v>
+      </c>
+      <c r="AJ57">
         <v>1996</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
         <v>0</v>
       </c>
       <c r="AL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>37790</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -7652,24 +8000,30 @@
         <v>0.5597904030000533</v>
       </c>
       <c r="AI58">
+        <v>0.002020785522304617</v>
+      </c>
+      <c r="AJ58">
         <v>1996</v>
       </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
       <c r="AK58">
         <v>0</v>
       </c>
       <c r="AL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>9555</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7768,24 +8122,30 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI59">
+        <v>0.03561377934114201</v>
+      </c>
+      <c r="AJ59">
         <v>1996</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
       <c r="AK59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59">
         <v>1</v>
       </c>
       <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>116500</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7884,24 +8244,30 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI60">
+        <v>0.03561377934114201</v>
+      </c>
+      <c r="AJ60">
         <v>1996</v>
       </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
       <c r="AK60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60">
         <v>1</v>
       </c>
       <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
         <v>77467.5</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -8000,24 +8366,30 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI61">
+        <v>0.03561377934114201</v>
+      </c>
+      <c r="AJ61">
         <v>1996</v>
       </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
       <c r="AK61">
         <v>0</v>
       </c>
       <c r="AL61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
         <v>5000</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -8116,24 +8488,30 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI62">
+        <v>0.03561377934114201</v>
+      </c>
+      <c r="AJ62">
         <v>1996</v>
       </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
       <c r="AK62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62">
         <v>1</v>
       </c>
       <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
         <v>69316</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -8232,24 +8610,30 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI63">
+        <v>0.03561377934114201</v>
+      </c>
+      <c r="AJ63">
         <v>1996</v>
       </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
       <c r="AK63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63">
         <v>1</v>
       </c>
       <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
         <v>155208.5</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -8348,24 +8732,30 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI64">
+        <v>0.03561377934114201</v>
+      </c>
+      <c r="AJ64">
         <v>1996</v>
       </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
       <c r="AK64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64">
         <v>1</v>
       </c>
       <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>272551.5</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8464,24 +8854,30 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI65">
+        <v>0.03561377934114201</v>
+      </c>
+      <c r="AJ65">
         <v>1996</v>
       </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
       <c r="AK65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65">
         <v>1</v>
       </c>
       <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
         <v>450000</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8580,24 +8976,30 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI66">
+        <v>0.03561377934114201</v>
+      </c>
+      <c r="AJ66">
         <v>1996</v>
       </c>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
       <c r="AK66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66">
         <v>1</v>
       </c>
       <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
         <v>84711</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -8696,24 +9098,30 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI67">
+        <v>0.03561377934114201</v>
+      </c>
+      <c r="AJ67">
         <v>1996</v>
       </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
       <c r="AK67">
         <v>0</v>
       </c>
       <c r="AL67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>87534</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8812,24 +9220,30 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI68">
+        <v>0.03561377934114201</v>
+      </c>
+      <c r="AJ68">
         <v>1996</v>
       </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
       <c r="AK68">
         <v>0</v>
       </c>
       <c r="AL68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>279072.5</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -8928,24 +9342,30 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI69">
+        <v>0.03561377934114201</v>
+      </c>
+      <c r="AJ69">
         <v>1996</v>
       </c>
-      <c r="AJ69">
-        <v>0</v>
-      </c>
       <c r="AK69">
         <v>0</v>
       </c>
       <c r="AL69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
         <v>144271</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -9044,24 +9464,30 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI70">
+        <v>0.03561377934114201</v>
+      </c>
+      <c r="AJ70">
         <v>1996</v>
       </c>
-      <c r="AJ70">
-        <v>0</v>
-      </c>
       <c r="AK70">
         <v>0</v>
       </c>
       <c r="AL70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
         <v>726445</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -9160,24 +9586,30 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI71">
+        <v>0.03561377934114201</v>
+      </c>
+      <c r="AJ71">
         <v>1996</v>
       </c>
-      <c r="AJ71">
-        <v>0</v>
-      </c>
       <c r="AK71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL71">
         <v>1</v>
       </c>
       <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
         <v>102960</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -9276,24 +9708,30 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI72">
+        <v>0.03561377934114201</v>
+      </c>
+      <c r="AJ72">
         <v>1996</v>
       </c>
-      <c r="AJ72">
-        <v>0</v>
-      </c>
       <c r="AK72">
         <v>0</v>
       </c>
       <c r="AL72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
         <v>37790</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -9392,24 +9830,30 @@
         <v>0.8915139019023289</v>
       </c>
       <c r="AI73">
+        <v>0.03561377934114201</v>
+      </c>
+      <c r="AJ73">
         <v>1996</v>
       </c>
-      <c r="AJ73">
-        <v>0</v>
-      </c>
       <c r="AK73">
         <v>0</v>
       </c>
       <c r="AL73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
         <v>9555</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -9466,7 +9910,7 @@
         <v>0</v>
       </c>
       <c r="T74">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U74">
         <v>34</v>
@@ -9502,30 +9946,36 @@
         <v>0</v>
       </c>
       <c r="AG74">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH74">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI74">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ74">
         <v>1996</v>
       </c>
-      <c r="AJ74">
-        <v>0</v>
-      </c>
       <c r="AK74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL74">
         <v>1</v>
       </c>
       <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
         <v>13603</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -9582,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="T75">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U75">
         <v>34</v>
@@ -9618,30 +10068,36 @@
         <v>10602689</v>
       </c>
       <c r="AG75">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH75">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI75">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ75">
         <v>1996</v>
       </c>
-      <c r="AJ75">
-        <v>0</v>
-      </c>
       <c r="AK75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL75">
         <v>1</v>
       </c>
       <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
         <v>17293</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9698,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="T76">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U76">
         <v>34</v>
@@ -9734,30 +10190,36 @@
         <v>0</v>
       </c>
       <c r="AG76">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH76">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI76">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ76">
         <v>1996</v>
       </c>
-      <c r="AJ76">
-        <v>0</v>
-      </c>
       <c r="AK76">
         <v>0</v>
       </c>
       <c r="AL76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
         <v>13603</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -9814,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="T77">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U77">
         <v>34</v>
@@ -9850,30 +10312,36 @@
         <v>0</v>
       </c>
       <c r="AG77">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH77">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI77">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ77">
         <v>1996</v>
       </c>
-      <c r="AJ77">
-        <v>0</v>
-      </c>
       <c r="AK77">
         <v>0</v>
       </c>
       <c r="AL77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
         <v>33297.5</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -9930,7 +10398,7 @@
         <v>0</v>
       </c>
       <c r="T78">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U78">
         <v>34</v>
@@ -9966,30 +10434,36 @@
         <v>0</v>
       </c>
       <c r="AG78">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH78">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI78">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ78">
         <v>1996</v>
       </c>
-      <c r="AJ78">
-        <v>0</v>
-      </c>
       <c r="AK78">
         <v>0</v>
       </c>
       <c r="AL78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
         <v>3186</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -10046,7 +10520,7 @@
         <v>0</v>
       </c>
       <c r="T79">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U79">
         <v>34</v>
@@ -10082,30 +10556,36 @@
         <v>0</v>
       </c>
       <c r="AG79">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH79">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI79">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ79">
         <v>1996</v>
       </c>
-      <c r="AJ79">
-        <v>0</v>
-      </c>
       <c r="AK79">
         <v>0</v>
       </c>
       <c r="AL79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
         <v>92928.735</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -10162,7 +10642,7 @@
         <v>0</v>
       </c>
       <c r="T80">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U80">
         <v>34</v>
@@ -10198,30 +10678,36 @@
         <v>0</v>
       </c>
       <c r="AG80">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH80">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI80">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ80">
         <v>1996</v>
       </c>
-      <c r="AJ80">
-        <v>0</v>
-      </c>
       <c r="AK80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL80">
         <v>1</v>
       </c>
       <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
         <v>13603</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -10278,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="T81">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U81">
         <v>34</v>
@@ -10314,30 +10800,36 @@
         <v>10535466</v>
       </c>
       <c r="AG81">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH81">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI81">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ81">
         <v>1996</v>
       </c>
-      <c r="AJ81">
-        <v>0</v>
-      </c>
       <c r="AK81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL81">
         <v>1</v>
       </c>
       <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
         <v>477310.835</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -10394,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="T82">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U82">
         <v>34</v>
@@ -10430,30 +10922,36 @@
         <v>11105000</v>
       </c>
       <c r="AG82">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH82">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI82">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ82">
         <v>1996</v>
       </c>
-      <c r="AJ82">
-        <v>0</v>
-      </c>
       <c r="AK82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL82">
         <v>1</v>
       </c>
       <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
         <v>71228</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -10510,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="T83">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U83">
         <v>34</v>
@@ -10546,30 +11044,36 @@
         <v>8039920</v>
       </c>
       <c r="AG83">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH83">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI83">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ83">
         <v>1996</v>
       </c>
-      <c r="AJ83">
-        <v>0</v>
-      </c>
       <c r="AK83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL83">
         <v>1</v>
       </c>
       <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
         <v>8749.495000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -10626,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="T84">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U84">
         <v>34</v>
@@ -10662,30 +11166,36 @@
         <v>6909225</v>
       </c>
       <c r="AG84">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH84">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI84">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ84">
         <v>1996</v>
       </c>
-      <c r="AJ84">
-        <v>0</v>
-      </c>
       <c r="AK84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL84">
         <v>1</v>
       </c>
       <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
         <v>277871.37</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -10742,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="T85">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U85">
         <v>34</v>
@@ -10778,30 +11288,36 @@
         <v>8125000</v>
       </c>
       <c r="AG85">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH85">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI85">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ85">
         <v>1996</v>
       </c>
-      <c r="AJ85">
-        <v>0</v>
-      </c>
       <c r="AK85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL85">
         <v>1</v>
       </c>
       <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
         <v>45603</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -10858,7 +11374,7 @@
         <v>0</v>
       </c>
       <c r="T86">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U86">
         <v>34</v>
@@ -10894,30 +11410,36 @@
         <v>0</v>
       </c>
       <c r="AG86">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH86">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI86">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ86">
         <v>1996</v>
       </c>
-      <c r="AJ86">
-        <v>0</v>
-      </c>
       <c r="AK86">
         <v>0</v>
       </c>
       <c r="AL86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
         <v>971572.3100000001</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10974,7 +11496,7 @@
         <v>0</v>
       </c>
       <c r="T87">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U87">
         <v>34</v>
@@ -11010,30 +11532,36 @@
         <v>0</v>
       </c>
       <c r="AG87">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH87">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI87">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ87">
         <v>1996</v>
       </c>
-      <c r="AJ87">
-        <v>0</v>
-      </c>
       <c r="AK87">
         <v>0</v>
       </c>
       <c r="AL87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
         <v>27000</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -11090,7 +11618,7 @@
         <v>0</v>
       </c>
       <c r="T88">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U88">
         <v>34</v>
@@ -11126,30 +11654,36 @@
         <v>0</v>
       </c>
       <c r="AG88">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH88">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI88">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ88">
         <v>1996</v>
       </c>
-      <c r="AJ88">
-        <v>0</v>
-      </c>
       <c r="AK88">
         <v>0</v>
       </c>
       <c r="AL88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
         <v>31882.5</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -11206,7 +11740,7 @@
         <v>0</v>
       </c>
       <c r="T89">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U89">
         <v>34</v>
@@ -11242,30 +11776,36 @@
         <v>0</v>
       </c>
       <c r="AG89">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH89">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI89">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ89">
         <v>1996</v>
       </c>
-      <c r="AJ89">
-        <v>0</v>
-      </c>
       <c r="AK89">
         <v>0</v>
       </c>
       <c r="AL89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
         <v>116170.86</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -11322,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="T90">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U90">
         <v>34</v>
@@ -11358,30 +11898,36 @@
         <v>8243214</v>
       </c>
       <c r="AG90">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH90">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI90">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ90">
         <v>1996</v>
       </c>
-      <c r="AJ90">
-        <v>0</v>
-      </c>
       <c r="AK90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL90">
         <v>1</v>
       </c>
       <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
         <v>43978</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -11438,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="T91">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U91">
         <v>34</v>
@@ -11474,30 +12020,36 @@
         <v>0</v>
       </c>
       <c r="AG91">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH91">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI91">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ91">
         <v>1996</v>
       </c>
-      <c r="AJ91">
-        <v>0</v>
-      </c>
       <c r="AK91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL91">
         <v>1</v>
       </c>
       <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
         <v>13603</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -11554,7 +12106,7 @@
         <v>0</v>
       </c>
       <c r="T92">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U92">
         <v>34</v>
@@ -11590,30 +12142,36 @@
         <v>5885000</v>
       </c>
       <c r="AG92">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH92">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI92">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ92">
         <v>1996</v>
       </c>
-      <c r="AJ92">
-        <v>0</v>
-      </c>
       <c r="AK92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL92">
         <v>1</v>
       </c>
       <c r="AM92">
+        <v>0</v>
+      </c>
+      <c r="AN92">
+        <v>1</v>
+      </c>
+      <c r="AO92">
         <v>19566.11</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:41">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -11670,7 +12228,7 @@
         <v>0</v>
       </c>
       <c r="T93">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U93">
         <v>34</v>
@@ -11706,30 +12264,36 @@
         <v>6615978</v>
       </c>
       <c r="AG93">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH93">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI93">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ93">
         <v>1996</v>
       </c>
-      <c r="AJ93">
-        <v>0</v>
-      </c>
       <c r="AK93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL93">
         <v>1</v>
       </c>
       <c r="AM93">
+        <v>0</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
         <v>347188.74</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:41">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -11786,7 +12350,7 @@
         <v>0</v>
       </c>
       <c r="T94">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U94">
         <v>34</v>
@@ -11822,30 +12386,36 @@
         <v>0</v>
       </c>
       <c r="AG94">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH94">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI94">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ94">
         <v>1996</v>
       </c>
-      <c r="AJ94">
-        <v>0</v>
-      </c>
       <c r="AK94">
         <v>0</v>
       </c>
       <c r="AL94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM94">
+        <v>0</v>
+      </c>
+      <c r="AN94">
+        <v>1</v>
+      </c>
+      <c r="AO94">
         <v>419822.345</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:41">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -11902,7 +12472,7 @@
         <v>0</v>
       </c>
       <c r="T95">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U95">
         <v>34</v>
@@ -11938,30 +12508,36 @@
         <v>0</v>
       </c>
       <c r="AG95">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH95">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI95">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ95">
         <v>1996</v>
       </c>
-      <c r="AJ95">
-        <v>0</v>
-      </c>
       <c r="AK95">
         <v>0</v>
       </c>
       <c r="AL95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM95">
+        <v>0</v>
+      </c>
+      <c r="AN95">
+        <v>1</v>
+      </c>
+      <c r="AO95">
         <v>15000</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:41">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -12018,7 +12594,7 @@
         <v>0</v>
       </c>
       <c r="T96">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U96">
         <v>34</v>
@@ -12054,30 +12630,36 @@
         <v>0</v>
       </c>
       <c r="AG96">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH96">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI96">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ96">
         <v>1996</v>
       </c>
-      <c r="AJ96">
-        <v>0</v>
-      </c>
       <c r="AK96">
         <v>0</v>
       </c>
       <c r="AL96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM96">
+        <v>0</v>
+      </c>
+      <c r="AN96">
+        <v>1</v>
+      </c>
+      <c r="AO96">
         <v>181849</v>
       </c>
     </row>
-    <row r="97" spans="1:39">
+    <row r="97" spans="1:41">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -12134,7 +12716,7 @@
         <v>0</v>
       </c>
       <c r="T97">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U97">
         <v>34</v>
@@ -12170,30 +12752,36 @@
         <v>0</v>
       </c>
       <c r="AG97">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH97">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI97">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ97">
         <v>1996</v>
       </c>
-      <c r="AJ97">
-        <v>0</v>
-      </c>
       <c r="AK97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL97">
         <v>1</v>
       </c>
       <c r="AM97">
+        <v>0</v>
+      </c>
+      <c r="AN97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
         <v>17293</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
+    <row r="98" spans="1:41">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -12250,7 +12838,7 @@
         <v>0</v>
       </c>
       <c r="T98">
-        <v>6076937.350000001</v>
+        <v>6100454.07</v>
       </c>
       <c r="U98">
         <v>34</v>
@@ -12286,30 +12874,36 @@
         <v>0</v>
       </c>
       <c r="AG98">
-        <v>10599235.35</v>
+        <v>10622752.07</v>
       </c>
       <c r="AH98">
-        <v>0.5733373351314441</v>
+        <v>0.5742818838094186</v>
       </c>
       <c r="AI98">
+        <v>0.04527451990131969</v>
+      </c>
+      <c r="AJ98">
         <v>1996</v>
       </c>
-      <c r="AJ98">
-        <v>0</v>
-      </c>
       <c r="AK98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL98">
         <v>1</v>
       </c>
       <c r="AM98">
+        <v>0</v>
+      </c>
+      <c r="AN98">
+        <v>1</v>
+      </c>
+      <c r="AO98">
         <v>17887</v>
       </c>
     </row>
-    <row r="99" spans="1:39">
+    <row r="99" spans="1:41">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -12408,24 +13002,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI99">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ99">
         <v>1996</v>
       </c>
-      <c r="AJ99">
-        <v>0</v>
-      </c>
       <c r="AK99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL99">
         <v>1</v>
       </c>
       <c r="AM99">
+        <v>0</v>
+      </c>
+      <c r="AN99">
+        <v>1</v>
+      </c>
+      <c r="AO99">
         <v>13603</v>
       </c>
     </row>
-    <row r="100" spans="1:39">
+    <row r="100" spans="1:41">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -12524,24 +13124,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI100">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ100">
         <v>1996</v>
       </c>
-      <c r="AJ100">
-        <v>0</v>
-      </c>
       <c r="AK100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL100">
         <v>1</v>
       </c>
       <c r="AM100">
+        <v>0</v>
+      </c>
+      <c r="AN100">
+        <v>1</v>
+      </c>
+      <c r="AO100">
         <v>17293</v>
       </c>
     </row>
-    <row r="101" spans="1:39">
+    <row r="101" spans="1:41">
       <c r="A101" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -12640,24 +13246,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI101">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ101">
         <v>1996</v>
       </c>
-      <c r="AJ101">
-        <v>0</v>
-      </c>
       <c r="AK101">
         <v>0</v>
       </c>
       <c r="AL101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM101">
+        <v>0</v>
+      </c>
+      <c r="AN101">
+        <v>1</v>
+      </c>
+      <c r="AO101">
         <v>13603</v>
       </c>
     </row>
-    <row r="102" spans="1:39">
+    <row r="102" spans="1:41">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -12756,24 +13368,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI102">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ102">
         <v>1996</v>
       </c>
-      <c r="AJ102">
-        <v>0</v>
-      </c>
       <c r="AK102">
         <v>0</v>
       </c>
       <c r="AL102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM102">
+        <v>0</v>
+      </c>
+      <c r="AN102">
+        <v>1</v>
+      </c>
+      <c r="AO102">
         <v>33297.5</v>
       </c>
     </row>
-    <row r="103" spans="1:39">
+    <row r="103" spans="1:41">
       <c r="A103" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -12872,24 +13490,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI103">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ103">
         <v>1996</v>
       </c>
-      <c r="AJ103">
-        <v>0</v>
-      </c>
       <c r="AK103">
         <v>0</v>
       </c>
       <c r="AL103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM103">
+        <v>0</v>
+      </c>
+      <c r="AN103">
+        <v>1</v>
+      </c>
+      <c r="AO103">
         <v>3186</v>
       </c>
     </row>
-    <row r="104" spans="1:39">
+    <row r="104" spans="1:41">
       <c r="A104" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -12988,24 +13612,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI104">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ104">
         <v>1996</v>
       </c>
-      <c r="AJ104">
-        <v>0</v>
-      </c>
       <c r="AK104">
         <v>0</v>
       </c>
       <c r="AL104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM104">
+        <v>0</v>
+      </c>
+      <c r="AN104">
+        <v>1</v>
+      </c>
+      <c r="AO104">
         <v>92928.735</v>
       </c>
     </row>
-    <row r="105" spans="1:39">
+    <row r="105" spans="1:41">
       <c r="A105" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -13104,24 +13734,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI105">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ105">
         <v>1996</v>
       </c>
-      <c r="AJ105">
-        <v>0</v>
-      </c>
       <c r="AK105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL105">
         <v>1</v>
       </c>
       <c r="AM105">
+        <v>0</v>
+      </c>
+      <c r="AN105">
+        <v>1</v>
+      </c>
+      <c r="AO105">
         <v>13603</v>
       </c>
     </row>
-    <row r="106" spans="1:39">
+    <row r="106" spans="1:41">
       <c r="A106" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -13220,24 +13856,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI106">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ106">
         <v>1996</v>
       </c>
-      <c r="AJ106">
-        <v>0</v>
-      </c>
       <c r="AK106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL106">
         <v>1</v>
       </c>
       <c r="AM106">
+        <v>0</v>
+      </c>
+      <c r="AN106">
+        <v>1</v>
+      </c>
+      <c r="AO106">
         <v>477310.835</v>
       </c>
     </row>
-    <row r="107" spans="1:39">
+    <row r="107" spans="1:41">
       <c r="A107" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -13336,24 +13978,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI107">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ107">
         <v>1996</v>
       </c>
-      <c r="AJ107">
-        <v>0</v>
-      </c>
       <c r="AK107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL107">
         <v>1</v>
       </c>
       <c r="AM107">
+        <v>0</v>
+      </c>
+      <c r="AN107">
+        <v>1</v>
+      </c>
+      <c r="AO107">
         <v>71228</v>
       </c>
     </row>
-    <row r="108" spans="1:39">
+    <row r="108" spans="1:41">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -13452,24 +14100,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI108">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ108">
         <v>1996</v>
       </c>
-      <c r="AJ108">
-        <v>0</v>
-      </c>
       <c r="AK108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL108">
         <v>1</v>
       </c>
       <c r="AM108">
+        <v>0</v>
+      </c>
+      <c r="AN108">
+        <v>1</v>
+      </c>
+      <c r="AO108">
         <v>8749.495000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:39">
+    <row r="109" spans="1:41">
       <c r="A109" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -13568,24 +14222,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI109">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ109">
         <v>1996</v>
       </c>
-      <c r="AJ109">
-        <v>0</v>
-      </c>
       <c r="AK109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL109">
         <v>1</v>
       </c>
       <c r="AM109">
+        <v>0</v>
+      </c>
+      <c r="AN109">
+        <v>1</v>
+      </c>
+      <c r="AO109">
         <v>277871.37</v>
       </c>
     </row>
-    <row r="110" spans="1:39">
+    <row r="110" spans="1:41">
       <c r="A110" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -13684,24 +14344,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI110">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ110">
         <v>1996</v>
       </c>
-      <c r="AJ110">
-        <v>0</v>
-      </c>
       <c r="AK110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL110">
         <v>1</v>
       </c>
       <c r="AM110">
+        <v>0</v>
+      </c>
+      <c r="AN110">
+        <v>1</v>
+      </c>
+      <c r="AO110">
         <v>45603</v>
       </c>
     </row>
-    <row r="111" spans="1:39">
+    <row r="111" spans="1:41">
       <c r="A111" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -13800,24 +14466,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI111">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ111">
         <v>1996</v>
       </c>
-      <c r="AJ111">
-        <v>0</v>
-      </c>
       <c r="AK111">
         <v>0</v>
       </c>
       <c r="AL111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM111">
+        <v>0</v>
+      </c>
+      <c r="AN111">
+        <v>1</v>
+      </c>
+      <c r="AO111">
         <v>971572.3100000001</v>
       </c>
     </row>
-    <row r="112" spans="1:39">
+    <row r="112" spans="1:41">
       <c r="A112" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -13916,24 +14588,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI112">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ112">
         <v>1996</v>
       </c>
-      <c r="AJ112">
-        <v>0</v>
-      </c>
       <c r="AK112">
         <v>0</v>
       </c>
       <c r="AL112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM112">
+        <v>0</v>
+      </c>
+      <c r="AN112">
+        <v>1</v>
+      </c>
+      <c r="AO112">
         <v>27000</v>
       </c>
     </row>
-    <row r="113" spans="1:39">
+    <row r="113" spans="1:41">
       <c r="A113" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -14032,24 +14710,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI113">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ113">
         <v>1996</v>
       </c>
-      <c r="AJ113">
-        <v>0</v>
-      </c>
       <c r="AK113">
         <v>0</v>
       </c>
       <c r="AL113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM113">
+        <v>0</v>
+      </c>
+      <c r="AN113">
+        <v>1</v>
+      </c>
+      <c r="AO113">
         <v>31882.5</v>
       </c>
     </row>
-    <row r="114" spans="1:39">
+    <row r="114" spans="1:41">
       <c r="A114" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -14148,24 +14832,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI114">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ114">
         <v>1996</v>
       </c>
-      <c r="AJ114">
-        <v>0</v>
-      </c>
       <c r="AK114">
         <v>0</v>
       </c>
       <c r="AL114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM114">
+        <v>0</v>
+      </c>
+      <c r="AN114">
+        <v>1</v>
+      </c>
+      <c r="AO114">
         <v>116170.86</v>
       </c>
     </row>
-    <row r="115" spans="1:39">
+    <row r="115" spans="1:41">
       <c r="A115" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -14264,24 +14954,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI115">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ115">
         <v>1996</v>
       </c>
-      <c r="AJ115">
-        <v>0</v>
-      </c>
       <c r="AK115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL115">
         <v>1</v>
       </c>
       <c r="AM115">
+        <v>0</v>
+      </c>
+      <c r="AN115">
+        <v>1</v>
+      </c>
+      <c r="AO115">
         <v>43978</v>
       </c>
     </row>
-    <row r="116" spans="1:39">
+    <row r="116" spans="1:41">
       <c r="A116" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -14380,24 +15076,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI116">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ116">
         <v>1996</v>
       </c>
-      <c r="AJ116">
-        <v>0</v>
-      </c>
       <c r="AK116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL116">
         <v>1</v>
       </c>
       <c r="AM116">
+        <v>0</v>
+      </c>
+      <c r="AN116">
+        <v>1</v>
+      </c>
+      <c r="AO116">
         <v>13603</v>
       </c>
     </row>
-    <row r="117" spans="1:39">
+    <row r="117" spans="1:41">
       <c r="A117" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -14496,24 +15198,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI117">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ117">
         <v>1996</v>
       </c>
-      <c r="AJ117">
-        <v>0</v>
-      </c>
       <c r="AK117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL117">
         <v>1</v>
       </c>
       <c r="AM117">
+        <v>0</v>
+      </c>
+      <c r="AN117">
+        <v>1</v>
+      </c>
+      <c r="AO117">
         <v>19566.11</v>
       </c>
     </row>
-    <row r="118" spans="1:39">
+    <row r="118" spans="1:41">
       <c r="A118" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -14612,24 +15320,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI118">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ118">
         <v>1996</v>
       </c>
-      <c r="AJ118">
-        <v>0</v>
-      </c>
       <c r="AK118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL118">
         <v>1</v>
       </c>
       <c r="AM118">
+        <v>0</v>
+      </c>
+      <c r="AN118">
+        <v>1</v>
+      </c>
+      <c r="AO118">
         <v>347188.74</v>
       </c>
     </row>
-    <row r="119" spans="1:39">
+    <row r="119" spans="1:41">
       <c r="A119" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -14728,24 +15442,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI119">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ119">
         <v>1996</v>
       </c>
-      <c r="AJ119">
-        <v>0</v>
-      </c>
       <c r="AK119">
         <v>0</v>
       </c>
       <c r="AL119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM119">
+        <v>0</v>
+      </c>
+      <c r="AN119">
+        <v>1</v>
+      </c>
+      <c r="AO119">
         <v>419822.345</v>
       </c>
     </row>
-    <row r="120" spans="1:39">
+    <row r="120" spans="1:41">
       <c r="A120" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -14844,24 +15564,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI120">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ120">
         <v>1996</v>
       </c>
-      <c r="AJ120">
-        <v>0</v>
-      </c>
       <c r="AK120">
         <v>0</v>
       </c>
       <c r="AL120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM120">
+        <v>0</v>
+      </c>
+      <c r="AN120">
+        <v>1</v>
+      </c>
+      <c r="AO120">
         <v>15000</v>
       </c>
     </row>
-    <row r="121" spans="1:39">
+    <row r="121" spans="1:41">
       <c r="A121" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -14960,24 +15686,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI121">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ121">
         <v>1996</v>
       </c>
-      <c r="AJ121">
-        <v>0</v>
-      </c>
       <c r="AK121">
         <v>0</v>
       </c>
       <c r="AL121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM121">
+        <v>0</v>
+      </c>
+      <c r="AN121">
+        <v>1</v>
+      </c>
+      <c r="AO121">
         <v>181849</v>
       </c>
     </row>
-    <row r="122" spans="1:39">
+    <row r="122" spans="1:41">
       <c r="A122" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -15076,30 +15808,36 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI122">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ122">
         <v>1996</v>
       </c>
-      <c r="AJ122">
-        <v>0</v>
-      </c>
       <c r="AK122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL122">
         <v>1</v>
       </c>
       <c r="AM122">
+        <v>0</v>
+      </c>
+      <c r="AN122">
+        <v>1</v>
+      </c>
+      <c r="AO122">
         <v>17293</v>
       </c>
     </row>
-    <row r="123" spans="1:39">
+    <row r="123" spans="1:41">
       <c r="A123" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -15192,24 +15930,30 @@
         <v>0.5815502707792728</v>
       </c>
       <c r="AI123">
+        <v>0.04599135796965315</v>
+      </c>
+      <c r="AJ123">
         <v>1996</v>
       </c>
-      <c r="AJ123">
-        <v>0</v>
-      </c>
       <c r="AK123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL123">
         <v>1</v>
       </c>
       <c r="AM123">
+        <v>0</v>
+      </c>
+      <c r="AN123">
+        <v>1</v>
+      </c>
+      <c r="AO123">
         <v>17887</v>
       </c>
     </row>
-    <row r="124" spans="1:39">
+    <row r="124" spans="1:41">
       <c r="A124" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -15308,24 +16052,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI124">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ124">
         <v>1996</v>
       </c>
-      <c r="AJ124">
-        <v>0</v>
-      </c>
       <c r="AK124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL124">
         <v>1</v>
       </c>
       <c r="AM124">
+        <v>0</v>
+      </c>
+      <c r="AN124">
+        <v>1</v>
+      </c>
+      <c r="AO124">
         <v>30000</v>
       </c>
     </row>
-    <row r="125" spans="1:39">
+    <row r="125" spans="1:41">
       <c r="A125" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -15424,24 +16174,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI125">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ125">
         <v>1996</v>
       </c>
-      <c r="AJ125">
-        <v>0</v>
-      </c>
       <c r="AK125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL125">
         <v>1</v>
       </c>
       <c r="AM125">
+        <v>0</v>
+      </c>
+      <c r="AN125">
+        <v>1</v>
+      </c>
+      <c r="AO125">
         <v>46974</v>
       </c>
     </row>
-    <row r="126" spans="1:39">
+    <row r="126" spans="1:41">
       <c r="A126" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -15540,24 +16296,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI126">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ126">
         <v>1996</v>
       </c>
-      <c r="AJ126">
-        <v>0</v>
-      </c>
       <c r="AK126">
         <v>0</v>
       </c>
       <c r="AL126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM126">
+        <v>0</v>
+      </c>
+      <c r="AN126">
+        <v>1</v>
+      </c>
+      <c r="AO126">
         <v>30000</v>
       </c>
     </row>
-    <row r="127" spans="1:39">
+    <row r="127" spans="1:41">
       <c r="A127" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -15656,24 +16418,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI127">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ127">
         <v>1996</v>
       </c>
-      <c r="AJ127">
-        <v>0</v>
-      </c>
       <c r="AK127">
         <v>0</v>
       </c>
       <c r="AL127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM127">
+        <v>0</v>
+      </c>
+      <c r="AN127">
+        <v>1</v>
+      </c>
+      <c r="AO127">
         <v>59254</v>
       </c>
     </row>
-    <row r="128" spans="1:39">
+    <row r="128" spans="1:41">
       <c r="A128" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -15772,24 +16540,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI128">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ128">
         <v>1996</v>
       </c>
-      <c r="AJ128">
-        <v>0</v>
-      </c>
       <c r="AK128">
         <v>0</v>
       </c>
       <c r="AL128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM128">
+        <v>0</v>
+      </c>
+      <c r="AN128">
+        <v>1</v>
+      </c>
+      <c r="AO128">
         <v>6365</v>
       </c>
     </row>
-    <row r="129" spans="1:39">
+    <row r="129" spans="1:41">
       <c r="A129" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -15888,24 +16662,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI129">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ129">
         <v>1996</v>
       </c>
-      <c r="AJ129">
-        <v>0</v>
-      </c>
       <c r="AK129">
         <v>0</v>
       </c>
       <c r="AL129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM129">
+        <v>0</v>
+      </c>
+      <c r="AN129">
+        <v>1</v>
+      </c>
+      <c r="AO129">
         <v>22200</v>
       </c>
     </row>
-    <row r="130" spans="1:39">
+    <row r="130" spans="1:41">
       <c r="A130" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -16004,24 +16784,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI130">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ130">
         <v>1996</v>
       </c>
-      <c r="AJ130">
-        <v>0</v>
-      </c>
       <c r="AK130">
         <v>0</v>
       </c>
       <c r="AL130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM130">
+        <v>0</v>
+      </c>
+      <c r="AN130">
+        <v>1</v>
+      </c>
+      <c r="AO130">
         <v>375851</v>
       </c>
     </row>
-    <row r="131" spans="1:39">
+    <row r="131" spans="1:41">
       <c r="A131" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -16120,24 +16906,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI131">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ131">
         <v>1996</v>
       </c>
-      <c r="AJ131">
-        <v>0</v>
-      </c>
       <c r="AK131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL131">
         <v>1</v>
       </c>
       <c r="AM131">
+        <v>0</v>
+      </c>
+      <c r="AN131">
+        <v>1</v>
+      </c>
+      <c r="AO131">
         <v>1295139</v>
       </c>
     </row>
-    <row r="132" spans="1:39">
+    <row r="132" spans="1:41">
       <c r="A132" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -16236,24 +17028,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI132">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ132">
         <v>1996</v>
       </c>
-      <c r="AJ132">
-        <v>0</v>
-      </c>
       <c r="AK132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL132">
         <v>1</v>
       </c>
       <c r="AM132">
+        <v>0</v>
+      </c>
+      <c r="AN132">
+        <v>1</v>
+      </c>
+      <c r="AO132">
         <v>89041</v>
       </c>
     </row>
-    <row r="133" spans="1:39">
+    <row r="133" spans="1:41">
       <c r="A133" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -16352,24 +17150,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI133">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ133">
         <v>1996</v>
       </c>
-      <c r="AJ133">
-        <v>0</v>
-      </c>
       <c r="AK133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL133">
         <v>1</v>
       </c>
       <c r="AM133">
+        <v>0</v>
+      </c>
+      <c r="AN133">
+        <v>1</v>
+      </c>
+      <c r="AO133">
         <v>179184</v>
       </c>
     </row>
-    <row r="134" spans="1:39">
+    <row r="134" spans="1:41">
       <c r="A134" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -16468,24 +17272,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI134">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ134">
         <v>1996</v>
       </c>
-      <c r="AJ134">
-        <v>0</v>
-      </c>
       <c r="AK134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL134">
         <v>1</v>
       </c>
       <c r="AM134">
+        <v>0</v>
+      </c>
+      <c r="AN134">
+        <v>1</v>
+      </c>
+      <c r="AO134">
         <v>305007</v>
       </c>
     </row>
-    <row r="135" spans="1:39">
+    <row r="135" spans="1:41">
       <c r="A135" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -16584,24 +17394,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI135">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ135">
         <v>1996</v>
       </c>
-      <c r="AJ135">
-        <v>0</v>
-      </c>
       <c r="AK135">
         <v>0</v>
       </c>
       <c r="AL135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM135">
+        <v>0</v>
+      </c>
+      <c r="AN135">
+        <v>1</v>
+      </c>
+      <c r="AO135">
         <v>70645</v>
       </c>
     </row>
-    <row r="136" spans="1:39">
+    <row r="136" spans="1:41">
       <c r="A136" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -16700,24 +17516,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI136">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ136">
         <v>1996</v>
       </c>
-      <c r="AJ136">
-        <v>0</v>
-      </c>
       <c r="AK136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL136">
         <v>1</v>
       </c>
       <c r="AM136">
+        <v>0</v>
+      </c>
+      <c r="AN136">
+        <v>1</v>
+      </c>
+      <c r="AO136">
         <v>670475</v>
       </c>
     </row>
-    <row r="137" spans="1:39">
+    <row r="137" spans="1:41">
       <c r="A137" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -16816,24 +17638,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI137">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ137">
         <v>1996</v>
       </c>
-      <c r="AJ137">
-        <v>0</v>
-      </c>
       <c r="AK137">
         <v>0</v>
       </c>
       <c r="AL137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM137">
+        <v>0</v>
+      </c>
+      <c r="AN137">
+        <v>1</v>
+      </c>
+      <c r="AO137">
         <v>1868955</v>
       </c>
     </row>
-    <row r="138" spans="1:39">
+    <row r="138" spans="1:41">
       <c r="A138" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -16932,24 +17760,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI138">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ138">
         <v>1996</v>
       </c>
-      <c r="AJ138">
-        <v>0</v>
-      </c>
       <c r="AK138">
         <v>0</v>
       </c>
       <c r="AL138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM138">
+        <v>0</v>
+      </c>
+      <c r="AN138">
+        <v>1</v>
+      </c>
+      <c r="AO138">
         <v>44900</v>
       </c>
     </row>
-    <row r="139" spans="1:39">
+    <row r="139" spans="1:41">
       <c r="A139" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -17048,24 +17882,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI139">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ139">
         <v>1996</v>
       </c>
-      <c r="AJ139">
-        <v>0</v>
-      </c>
       <c r="AK139">
         <v>0</v>
       </c>
       <c r="AL139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM139">
+        <v>0</v>
+      </c>
+      <c r="AN139">
+        <v>1</v>
+      </c>
+      <c r="AO139">
         <v>1983</v>
       </c>
     </row>
-    <row r="140" spans="1:39">
+    <row r="140" spans="1:41">
       <c r="A140" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -17164,24 +18004,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI140">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ140">
         <v>1996</v>
       </c>
-      <c r="AJ140">
-        <v>0</v>
-      </c>
       <c r="AK140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL140">
         <v>1</v>
       </c>
       <c r="AM140">
+        <v>0</v>
+      </c>
+      <c r="AN140">
+        <v>1</v>
+      </c>
+      <c r="AO140">
         <v>10000</v>
       </c>
     </row>
-    <row r="141" spans="1:39">
+    <row r="141" spans="1:41">
       <c r="A141" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -17280,24 +18126,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI141">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ141">
         <v>1996</v>
       </c>
-      <c r="AJ141">
-        <v>0</v>
-      </c>
       <c r="AK141">
         <v>0</v>
       </c>
       <c r="AL141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM141">
+        <v>0</v>
+      </c>
+      <c r="AN141">
+        <v>1</v>
+      </c>
+      <c r="AO141">
         <v>3273</v>
       </c>
     </row>
-    <row r="142" spans="1:39">
+    <row r="142" spans="1:41">
       <c r="A142" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -17396,24 +18248,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI142">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ142">
         <v>1996</v>
       </c>
-      <c r="AJ142">
-        <v>0</v>
-      </c>
       <c r="AK142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL142">
         <v>1</v>
       </c>
       <c r="AM142">
+        <v>0</v>
+      </c>
+      <c r="AN142">
+        <v>1</v>
+      </c>
+      <c r="AO142">
         <v>177293</v>
       </c>
     </row>
-    <row r="143" spans="1:39">
+    <row r="143" spans="1:41">
       <c r="A143" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -17512,24 +18370,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI143">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ143">
         <v>1996</v>
       </c>
-      <c r="AJ143">
-        <v>0</v>
-      </c>
       <c r="AK143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL143">
         <v>1</v>
       </c>
       <c r="AM143">
+        <v>0</v>
+      </c>
+      <c r="AN143">
+        <v>1</v>
+      </c>
+      <c r="AO143">
         <v>25000</v>
       </c>
     </row>
-    <row r="144" spans="1:39">
+    <row r="144" spans="1:41">
       <c r="A144" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -17628,24 +18492,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI144">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ144">
         <v>1996</v>
       </c>
-      <c r="AJ144">
-        <v>0</v>
-      </c>
       <c r="AK144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL144">
         <v>1</v>
       </c>
       <c r="AM144">
+        <v>0</v>
+      </c>
+      <c r="AN144">
+        <v>1</v>
+      </c>
+      <c r="AO144">
         <v>52291</v>
       </c>
     </row>
-    <row r="145" spans="1:39">
+    <row r="145" spans="1:41">
       <c r="A145" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -17744,24 +18614,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI145">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ145">
         <v>1996</v>
       </c>
-      <c r="AJ145">
-        <v>0</v>
-      </c>
       <c r="AK145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL145">
         <v>1</v>
       </c>
       <c r="AM145">
+        <v>0</v>
+      </c>
+      <c r="AN145">
+        <v>1</v>
+      </c>
+      <c r="AO145">
         <v>420888</v>
       </c>
     </row>
-    <row r="146" spans="1:39">
+    <row r="146" spans="1:41">
       <c r="A146" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -17860,24 +18736,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI146">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ146">
         <v>1996</v>
       </c>
-      <c r="AJ146">
-        <v>0</v>
-      </c>
       <c r="AK146">
         <v>0</v>
       </c>
       <c r="AL146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM146">
+        <v>0</v>
+      </c>
+      <c r="AN146">
+        <v>1</v>
+      </c>
+      <c r="AO146">
         <v>680245</v>
       </c>
     </row>
-    <row r="147" spans="1:39">
+    <row r="147" spans="1:41">
       <c r="A147" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -17976,24 +18858,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI147">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ147">
         <v>1996</v>
       </c>
-      <c r="AJ147">
-        <v>0</v>
-      </c>
       <c r="AK147">
         <v>0</v>
       </c>
       <c r="AL147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM147">
+        <v>0</v>
+      </c>
+      <c r="AN147">
+        <v>1</v>
+      </c>
+      <c r="AO147">
         <v>32000</v>
       </c>
     </row>
-    <row r="148" spans="1:39">
+    <row r="148" spans="1:41">
       <c r="A148" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -18092,24 +18980,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI148">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ148">
         <v>1996</v>
       </c>
-      <c r="AJ148">
-        <v>0</v>
-      </c>
       <c r="AK148">
         <v>0</v>
       </c>
       <c r="AL148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM148">
+        <v>0</v>
+      </c>
+      <c r="AN148">
+        <v>1</v>
+      </c>
+      <c r="AO148">
         <v>47293</v>
       </c>
     </row>
-    <row r="149" spans="1:39">
+    <row r="149" spans="1:41">
       <c r="A149" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -18208,24 +19102,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI149">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ149">
         <v>1996</v>
       </c>
-      <c r="AJ149">
-        <v>0</v>
-      </c>
       <c r="AK149">
         <v>0</v>
       </c>
       <c r="AL149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM149">
+        <v>0</v>
+      </c>
+      <c r="AN149">
+        <v>1</v>
+      </c>
+      <c r="AO149">
         <v>344748</v>
       </c>
     </row>
-    <row r="150" spans="1:39">
+    <row r="150" spans="1:41">
       <c r="A150" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -18324,30 +19224,36 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI150">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ150">
         <v>1996</v>
       </c>
-      <c r="AJ150">
-        <v>0</v>
-      </c>
       <c r="AK150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL150">
         <v>1</v>
       </c>
       <c r="AM150">
+        <v>0</v>
+      </c>
+      <c r="AN150">
+        <v>1</v>
+      </c>
+      <c r="AO150">
         <v>40000</v>
       </c>
     </row>
-    <row r="151" spans="1:39">
+    <row r="151" spans="1:41">
       <c r="A151" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -18440,24 +19346,30 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI151">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ151">
         <v>1996</v>
       </c>
-      <c r="AJ151">
-        <v>0</v>
-      </c>
       <c r="AK151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL151">
         <v>1</v>
       </c>
       <c r="AM151">
+        <v>0</v>
+      </c>
+      <c r="AN151">
+        <v>1</v>
+      </c>
+      <c r="AO151">
         <v>57892</v>
       </c>
     </row>
-    <row r="152" spans="1:39">
+    <row r="152" spans="1:41">
       <c r="A152" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -18556,18 +19468,24 @@
         <v>0.6925484598075516</v>
       </c>
       <c r="AI152">
+        <v>0.03325822355094581</v>
+      </c>
+      <c r="AJ152">
         <v>1996</v>
       </c>
-      <c r="AJ152">
-        <v>0</v>
-      </c>
       <c r="AK152">
         <v>0</v>
       </c>
       <c r="AL152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM152">
+        <v>0</v>
+      </c>
+      <c r="AN152">
+        <v>1</v>
+      </c>
+      <c r="AO152">
         <v>13042</v>
       </c>
     </row>

--- a/output/alboan.xlsx
+++ b/output/alboan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
+    <t>Budget_Previous_Year</t>
   </si>
   <si>
-    <t>Vision_ONGD_LatinAmerica</t>
+    <t>LatinAmerica</t>
   </si>
   <si>
-    <t>Vision_ONGD_Africa</t>
+    <t>Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confessional</t>
+    <t>Confessional</t>
   </si>
   <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
+    <t>Donor_Aid_Budget</t>
   </si>
   <si>
-    <t>Total_Fondos</t>
+    <t>Total_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_Privados</t>
+    <t>%_Private_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -503,9 +503,6 @@
   </si>
   <si>
     <t>2015_venezuela</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>2016_argentina</t>
@@ -1075,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2880</v>
+        <v>2771.04675450926</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1197,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1319,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D4">
         <v>342148</v>
@@ -1441,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1620</v>
+        <v>1873.394108966653</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1563,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1685,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6800</v>
+        <v>7772.38875590225</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1807,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1929,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10380</v>
+        <v>14239.03920301361</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2051,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1120</v>
+        <v>1268.249210347625</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2173,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2010</v>
+        <v>2609.688011589589</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2295,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>480</v>
+        <v>471.181692645893</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2417,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>910</v>
+        <v>892.5687203369533</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2539,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2120</v>
+        <v>2812.435974421079</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2661,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2930</v>
+        <v>2839.92516805933</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2783,7 +2780,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>220</v>
+        <v>234.2356468749991</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2905,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>570</v>
+        <v>612.3436990512633</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3027,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2890</v>
+        <v>2983.242707849043</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3149,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3271,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>650</v>
+        <v>665.6274194933962</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3373,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20">
         <v>0</v>
@@ -3393,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1730</v>
+        <v>1904.346464968814</v>
       </c>
       <c r="D21">
         <v>153815</v>
@@ -3515,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3637,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5610</v>
+        <v>6336.709213679884</v>
       </c>
       <c r="D23">
         <v>346171</v>
@@ -3759,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3881,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>11810</v>
+        <v>13825.35808833117</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4003,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1220</v>
+        <v>1357.563719132622</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4125,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>2410</v>
+        <v>2799.648876199722</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4369,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>880</v>
+        <v>863.7612548677739</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4491,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>3000</v>
+        <v>2948.84548976845</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4613,7 +4610,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>230</v>
+        <v>235.9887666597866</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4735,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>620</v>
+        <v>644.763840173281</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4857,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>3060</v>
+        <v>3083.80337578809</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4979,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5101,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>710</v>
+        <v>691.8942672110555</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5203,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35">
         <v>0</v>
@@ -5223,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1860</v>
+        <v>1939.33862702996</v>
       </c>
       <c r="D36">
         <v>265000</v>
@@ -5345,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5467,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>8510</v>
+        <v>8841.561277324312</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5589,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>6320</v>
+        <v>6711.616186806423</v>
       </c>
       <c r="D39">
         <v>250000</v>
@@ -5711,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5833,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>11980</v>
+        <v>14179.19231490798</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5955,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>1360</v>
+        <v>1410.426304742003</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -6077,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>2850</v>
+        <v>3014.578744505088</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6199,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1950</v>
+        <v>1982.009737844954</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6321,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>3210</v>
+        <v>3156.723844635973</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6443,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>760</v>
+        <v>701.4459636783288</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6545,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="AL46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM46">
         <v>0</v>
@@ -6565,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>3100</v>
+        <v>2999.422762626143</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6687,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6809,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6931,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>7290</v>
+        <v>6911.59200404802</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -7053,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>12710</v>
+        <v>14735.09353649063</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7175,7 +7172,7 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>250</v>
+        <v>238.8160458251716</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7297,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>2390</v>
+        <v>2860.874335573629</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7419,7 +7416,7 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>960</v>
+        <v>909.3123437708064</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7541,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>1480</v>
+        <v>1469.177610078392</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7663,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2970</v>
+        <v>2379.668184479739</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7785,7 +7782,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>410</v>
+        <v>389.9389667216314</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7907,7 +7904,7 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>430</v>
+        <v>467.435789903935</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -8029,7 +8026,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>1990</v>
+        <v>2000.792448761861</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -8151,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>3350</v>
+        <v>3212.740625904757</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8273,7 +8270,7 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>800</v>
+        <v>720.7128711178943</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8375,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="AL61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM61">
         <v>0</v>
@@ -8395,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>3320</v>
+        <v>3056.152683606517</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8517,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8639,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8761,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>7910</v>
+        <v>7200.731056811853</v>
       </c>
       <c r="D65">
         <v>347940</v>
@@ -8883,7 +8880,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>11970</v>
+        <v>14721.85595470026</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -9005,7 +9002,7 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>260</v>
+        <v>242.8459946574492</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -9127,7 +9124,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>2490</v>
+        <v>2887.250212489506</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9249,7 +9246,7 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>970</v>
+        <v>929.4690557368662</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -9371,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>1520</v>
+        <v>1544.619247249133</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9493,7 +9490,7 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>3290</v>
+        <v>2497.68592515536</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -9615,7 +9612,7 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>470</v>
+        <v>419.1838602515346</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -9737,7 +9734,7 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>440</v>
+        <v>465.3887773612468</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -9859,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>12350</v>
+        <v>10398.69400694643</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -9981,7 +9978,7 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -10103,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>12100</v>
+        <v>11951.20944634967</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -10225,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>260</v>
+        <v>245.326738733565</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -10347,7 +10344,7 @@
         <v>1</v>
       </c>
       <c r="C78">
-        <v>1020</v>
+        <v>972.7427283025324</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -10469,7 +10466,7 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>980</v>
+        <v>961.3778847738438</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10591,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>14990</v>
+        <v>14561.32616430782</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -10713,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>8190</v>
+        <v>7449.08671983612</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -10835,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>3400</v>
+        <v>3252.634165082374</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -10957,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>3450</v>
+        <v>2612.856880840196</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -11079,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -11201,7 +11198,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>1990</v>
+        <v>2025.814194788851</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -11323,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>1560</v>
+        <v>1640.18070024053</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -11445,7 +11442,7 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>1240</v>
+        <v>1060.095015975378</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -11567,7 +11564,7 @@
         <v>1</v>
       </c>
       <c r="C88">
-        <v>440</v>
+        <v>468.1130345750273</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -11689,7 +11686,7 @@
         <v>1</v>
       </c>
       <c r="C89">
-        <v>770</v>
+        <v>711.3043470146426</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -11811,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -11933,7 +11930,7 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>11040</v>
+        <v>10357.504182008</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -12055,7 +12052,7 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>5780</v>
+        <v>4861.287098802361</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -12177,7 +12174,7 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -12421,7 +12418,7 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>390</v>
+        <v>334.4404985977295</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -12543,7 +12540,7 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>720</v>
+        <v>723.2321880005983</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -12665,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>15830</v>
+        <v>13934.57616855834</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -12787,7 +12784,7 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>13080</v>
+        <v>14025.35756477021</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -12909,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>12600</v>
+        <v>10568.15780870825</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -13031,7 +13028,7 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -13153,7 +13150,7 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>10160</v>
+        <v>11431.15448084494</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -13275,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <v>260</v>
+        <v>228.4325441716057</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -13397,7 +13394,7 @@
         <v>0</v>
       </c>
       <c r="C103">
-        <v>1060</v>
+        <v>1024.621364522189</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -13519,7 +13516,7 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <v>880</v>
+        <v>956.659691840205</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -13641,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>14140</v>
+        <v>14722.36632763098</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -13763,7 +13760,7 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>7330</v>
+        <v>7580.275568826287</v>
       </c>
       <c r="D106">
         <v>312048</v>
@@ -13885,7 +13882,7 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>3440</v>
+        <v>3314.741082534716</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -14007,7 +14004,7 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>3510</v>
+        <v>2735.187532014817</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -14129,7 +14126,7 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -14251,7 +14248,7 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>2040</v>
+        <v>2067.29003376698</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -14373,7 +14370,7 @@
         <v>0</v>
       </c>
       <c r="C111">
-        <v>1600</v>
+        <v>1751.664428859304</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -14495,7 +14492,7 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>1290</v>
+        <v>1093.134170274031</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -14617,7 +14614,7 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>420</v>
+        <v>469.9423670895969</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -14739,7 +14736,7 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>780</v>
+        <v>731.9993357350996</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -14861,7 +14858,7 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -14983,7 +14980,7 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>11740</v>
+        <v>10765.91029414483</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -15105,7 +15102,7 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>5620</v>
+        <v>4944.191641077407</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -15227,7 +15224,7 @@
         <v>0</v>
       </c>
       <c r="C118">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -15471,7 +15468,7 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>400</v>
+        <v>346.6937973410475</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -15593,7 +15590,7 @@
         <v>0</v>
       </c>
       <c r="C121">
-        <v>730</v>
+        <v>767.6026452352251</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -15715,7 +15712,7 @@
         <v>0</v>
       </c>
       <c r="C122">
-        <v>15640</v>
+        <v>13938.79006840762</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -15836,8 +15833,8 @@
       <c r="B123">
         <v>0</v>
       </c>
-      <c r="C123" t="s">
-        <v>163</v>
+      <c r="C123">
+        <v>0</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -15953,13 +15950,13 @@
     </row>
     <row r="124" spans="1:41">
       <c r="A124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>12220</v>
+        <v>10239.48134799327</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -16075,13 +16072,13 @@
     </row>
     <row r="125" spans="1:41">
       <c r="A125" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="C125">
-        <v>3040</v>
+        <v>2425.561644739583</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -16197,13 +16194,13 @@
     </row>
     <row r="126" spans="1:41">
       <c r="A126" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>8930</v>
+        <v>10965.97426143915</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -16319,13 +16316,13 @@
     </row>
     <row r="127" spans="1:41">
       <c r="A127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
       <c r="C127">
-        <v>270</v>
+        <v>219.9614977577509</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -16441,13 +16438,13 @@
     </row>
     <row r="128" spans="1:41">
       <c r="A128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
       <c r="C128">
-        <v>1140</v>
+        <v>1079.630539001193</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -16563,13 +16560,13 @@
     </row>
     <row r="129" spans="1:41">
       <c r="A129" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
       <c r="C129">
-        <v>1380</v>
+        <v>1469.192636109792</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -16685,13 +16682,13 @@
     </row>
     <row r="130" spans="1:41">
       <c r="A130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
       <c r="C130">
-        <v>730</v>
+        <v>869.0586852798759</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -16807,13 +16804,13 @@
     </row>
     <row r="131" spans="1:41">
       <c r="A131" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="C131">
-        <v>6460</v>
+        <v>7633.969039669125</v>
       </c>
       <c r="D131">
         <v>449053</v>
@@ -16929,13 +16926,13 @@
     </row>
     <row r="132" spans="1:41">
       <c r="A132" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
       <c r="C132">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -17051,13 +17048,13 @@
     </row>
     <row r="133" spans="1:41">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="C133">
-        <v>3510</v>
+        <v>3382.563653843273</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -17173,13 +17170,13 @@
     </row>
     <row r="134" spans="1:41">
       <c r="A134" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="C134">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -17295,13 +17292,13 @@
     </row>
     <row r="135" spans="1:41">
       <c r="A135" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
       <c r="C135">
-        <v>780</v>
+        <v>729.8559996981501</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -17403,7 +17400,7 @@
         <v>0</v>
       </c>
       <c r="AL135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM135">
         <v>0</v>
@@ -17417,13 +17414,13 @@
     </row>
     <row r="136" spans="1:41">
       <c r="A136" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="C136">
-        <v>2110</v>
+        <v>2111.193164269742</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -17539,13 +17536,13 @@
     </row>
     <row r="137" spans="1:41">
       <c r="A137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="C137">
-        <v>1690</v>
+        <v>1875.732161108182</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -17661,13 +17658,13 @@
     </row>
     <row r="138" spans="1:41">
       <c r="A138" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="C138">
-        <v>1360</v>
+        <v>1129.713195979213</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -17783,13 +17780,13 @@
     </row>
     <row r="139" spans="1:41">
       <c r="A139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
       <c r="C139">
-        <v>7250</v>
+        <v>6411.986543373589</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -17905,13 +17902,13 @@
     </row>
     <row r="140" spans="1:41">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="C140">
-        <v>2890</v>
+        <v>3212.81539531051</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -18027,13 +18024,13 @@
     </row>
     <row r="141" spans="1:41">
       <c r="A141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
       <c r="C141">
-        <v>770</v>
+        <v>729.6614300490079</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -18149,13 +18146,13 @@
     </row>
     <row r="142" spans="1:41">
       <c r="A142" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
       <c r="C142">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -18271,13 +18268,13 @@
     </row>
     <row r="143" spans="1:41">
       <c r="A143" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="C143">
-        <v>12390</v>
+        <v>11107.22332817951</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -18393,13 +18390,13 @@
     </row>
     <row r="144" spans="1:41">
       <c r="A144" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="C144">
-        <v>5390</v>
+        <v>5089.61202008711</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -18515,13 +18512,13 @@
     </row>
     <row r="145" spans="1:41">
       <c r="A145" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="C145">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -18637,7 +18634,7 @@
     </row>
     <row r="146" spans="1:41">
       <c r="A146" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -18759,13 +18756,13 @@
     </row>
     <row r="147" spans="1:41">
       <c r="A147" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
       <c r="C147">
-        <v>410</v>
+        <v>359.6000402964525</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -18881,13 +18878,13 @@
     </row>
     <row r="148" spans="1:41">
       <c r="A148" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
       <c r="C148">
-        <v>6640</v>
+        <v>7026.178156858586</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -18989,7 +18986,7 @@
         <v>0</v>
       </c>
       <c r="AL148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM148">
         <v>0</v>
@@ -19003,13 +19000,13 @@
     </row>
     <row r="149" spans="1:41">
       <c r="A149" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
       <c r="C149">
-        <v>720</v>
+        <v>792.6212731169028</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -19125,13 +19122,13 @@
     </row>
     <row r="150" spans="1:41">
       <c r="A150" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="C150">
-        <v>14980</v>
+        <v>14124.14385720241</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -19247,13 +19244,13 @@
     </row>
     <row r="151" spans="1:41">
       <c r="A151" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
-      <c r="C151" t="s">
-        <v>163</v>
+      <c r="C151">
+        <v>0</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -19369,13 +19366,13 @@
     </row>
     <row r="152" spans="1:41">
       <c r="A152" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
       <c r="C152">
-        <v>18890</v>
+        <v>22666.28622740736</v>
       </c>
       <c r="D152">
         <v>0</v>

--- a/output/alboan.xlsx
+++ b/output/alboan.xlsx
@@ -1319,7 +1319,7 @@
         <v>2870.311589353206</v>
       </c>
       <c r="D4">
-        <v>342148</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>482809</v>
@@ -4244,7 +4244,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>345.2661148508273</v>
       </c>
       <c r="D28">
         <v>133054</v>
@@ -8032,7 +8032,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>116500</v>
+        <v>433476</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>77467.5</v>
+        <v>123072</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>5000</v>
+        <v>7044</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -8398,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>69316</v>
+        <v>600239</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -8520,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>155208.5</v>
+        <v>428489</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -8642,7 +8642,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>272551.5</v>
+        <v>1212222</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -8764,7 +8764,7 @@
         <v>347940</v>
       </c>
       <c r="E65">
-        <v>450000</v>
+        <v>517710</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -8886,7 +8886,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>84711</v>
+        <v>193934</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>87534</v>
+        <v>538414</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -9130,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>279072.5</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>144271</v>
+        <v>354793</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>726445</v>
+        <v>181853123</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -9496,7 +9496,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>102960</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -9618,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>37790</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>9555</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -12296,7 +12296,7 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>397.3416704698143</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>13603</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -13034,7 +13034,7 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>17293</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -13156,7 +13156,7 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>13603</v>
+        <v>0</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -13269,7 +13269,7 @@
         <v>141</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102">
         <v>228.4325441716057</v>
@@ -13278,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>33297.5</v>
+        <v>87534</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -13391,7 +13391,7 @@
         <v>142</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103">
         <v>1024.621364522189</v>
@@ -13400,7 +13400,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>3186</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -13513,7 +13513,7 @@
         <v>143</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104">
         <v>956.659691840205</v>
@@ -13522,7 +13522,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>92928.735</v>
+        <v>144271</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -13644,7 +13644,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>13603</v>
+        <v>0</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -13766,7 +13766,7 @@
         <v>312048</v>
       </c>
       <c r="E106">
-        <v>477310.835</v>
+        <v>450000</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -13888,7 +13888,7 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>71228</v>
+        <v>77467.5</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -14010,7 +14010,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>8749.495000000001</v>
+        <v>102960</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -14132,7 +14132,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>277871.37</v>
+        <v>69316</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -14254,7 +14254,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>45603</v>
+        <v>116500</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -14376,7 +14376,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>971572.3100000001</v>
+        <v>726445</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -14498,7 +14498,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -14611,7 +14611,7 @@
         <v>152</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113">
         <v>469.9423670895969</v>
@@ -14620,7 +14620,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>31882.5</v>
+        <v>9555</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         <v>153</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114">
         <v>731.9993357350996</v>
@@ -14742,7 +14742,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>116170.86</v>
+        <v>0</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -14864,7 +14864,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>43978</v>
+        <v>155208.5</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -14986,7 +14986,7 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>13603</v>
+        <v>0</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -15108,7 +15108,7 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>19566.11</v>
+        <v>0</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -15230,7 +15230,7 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>347188.74</v>
+        <v>272551.5</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -15343,16 +15343,16 @@
         <v>158</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>411.0205730866137</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>419822.345</v>
+        <v>0</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -15465,7 +15465,7 @@
         <v>159</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120">
         <v>346.6937973410475</v>
@@ -15474,7 +15474,7 @@
         <v>0</v>
       </c>
       <c r="E120">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -15587,7 +15587,7 @@
         <v>160</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121">
         <v>767.6026452352251</v>
@@ -15596,7 +15596,7 @@
         <v>0</v>
       </c>
       <c r="E121">
-        <v>181849</v>
+        <v>0</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -15718,7 +15718,7 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <v>17293</v>
+        <v>0</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -15834,13 +15834,13 @@
         <v>0</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>13137</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>17887</v>
+        <v>84711</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -18640,7 +18640,7 @@
         <v>1</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>407.2896431385426</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -19250,7 +19250,7 @@
         <v>0</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>10984</v>
       </c>
       <c r="D151">
         <v>0</v>
